--- a/Projektplan_Entwicklungsprojekt_Grimmeisen_Hachicha_.xlsx
+++ b/Projektplan_Entwicklungsprojekt_Grimmeisen_Hachicha_.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{353D44A4-00CE-4F2D-80F9-90C833C32A0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35C20F1-F7FC-4C73-8DEF-A4D9EB67F7E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <definedName name="Woche_anzeigen">Projektplan!$E$4</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt einen Projektplan.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -200,9 +201,6 @@
   </si>
   <si>
     <t>Zielhierarchie</t>
-  </si>
-  <si>
-    <t>Erläuterung der Abwägung der gewählten Methoden im Vorgehen</t>
   </si>
   <si>
     <t>20.11.2020</t>
@@ -324,6 +322,24 @@
   </si>
   <si>
     <t>Unternehmen werden bei Rechnungen, Arbeitszeittabellen, Bestandstrackern, Geschäftsberichten und Vorlagen für die Projektplanung fündig. Lehrer und Schüler finden Ressourcen wie Stundenpläne, Klassenbücher und Teilnahmebögen. Organisieren Sie Ihr Familienleben mit Speiseplänen, Checklisten und Übungsprotokollen. Jede Vorlage wurde gründlich recherchiert, verfeinert und im Lauf der Zeit anhand des Feedbacks von Tausenden von Benutzern verbessert.</t>
+  </si>
+  <si>
+    <t>Weiterentwicklung der Projektrisiken wie z.B. Dateschutz und Privatsphäre</t>
+  </si>
+  <si>
+    <t>Begründung der Auswahl der PoCs, Projektrisiken</t>
+  </si>
+  <si>
+    <t>Begründung der Auswahl der PoCs, Feedback Code</t>
+  </si>
+  <si>
+    <t>Begründung der Auswahl der PoCs, Feedback Spezifikation</t>
+  </si>
+  <si>
+    <t>Deliverables für den 3. Audit (Projektplan)</t>
+  </si>
+  <si>
+    <t>Prototyp Code</t>
   </si>
 </sst>
 </file>
@@ -598,7 +614,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -868,6 +884,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -1141,7 +1163,7 @@
     <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1194,9 +1216,6 @@
     <xf numFmtId="9" fontId="5" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1392,6 +1411,16 @@
     <xf numFmtId="9" fontId="5" fillId="47" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1404,16 +1433,15 @@
     <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Akzent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1471,7 +1499,37 @@
     <cellStyle name="zAusgeblText" xfId="3" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
     <cellStyle name="Zelle überprüfen" xfId="25" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1598,15 +1656,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Aufgabenliste" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
+      <tableStyleElement type="firstColumn" dxfId="11"/>
+      <tableStyleElement type="lastColumn" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2023,14 +2081,14 @@
   </sheetPr>
   <dimension ref="A1:BL41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="25" zoomScaleNormal="25" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BA2" sqref="BA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="43" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="30.7265625" customWidth="1"/>
     <col min="4" max="4" width="12.1796875" customWidth="1"/>
@@ -2043,293 +2101,293 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="33"/>
+      <c r="F1" s="32"/>
       <c r="H1" s="2"/>
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="91" t="s">
+      <c r="D3" s="88"/>
+      <c r="E3" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="91"/>
+      <c r="F3" s="94"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="93"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="88"/>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="88"/>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="88"/>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="88"/>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="90"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="91"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="91"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="91"/>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="91"/>
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="91"/>
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="93"/>
+      <c r="BF4" s="91"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="93"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="I5" s="80">
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="I5" s="79">
         <v>2</v>
       </c>
-      <c r="J5" s="81">
+      <c r="J5" s="80">
         <v>3</v>
       </c>
-      <c r="K5" s="81">
+      <c r="K5" s="80">
         <v>4</v>
       </c>
-      <c r="L5" s="81">
+      <c r="L5" s="80">
         <v>5</v>
       </c>
-      <c r="M5" s="81">
+      <c r="M5" s="80">
         <v>6</v>
       </c>
-      <c r="N5" s="81">
+      <c r="N5" s="80">
         <v>7</v>
       </c>
-      <c r="O5" s="82">
+      <c r="O5" s="81">
         <v>8</v>
       </c>
-      <c r="P5" s="80">
+      <c r="P5" s="79">
         <v>9</v>
       </c>
-      <c r="Q5" s="81">
+      <c r="Q5" s="80">
         <v>10</v>
       </c>
-      <c r="R5" s="81">
+      <c r="R5" s="80">
         <v>11</v>
       </c>
-      <c r="S5" s="81">
+      <c r="S5" s="80">
         <v>12</v>
       </c>
-      <c r="T5" s="81">
+      <c r="T5" s="80">
         <v>13</v>
       </c>
-      <c r="U5" s="81">
+      <c r="U5" s="80">
         <v>14</v>
       </c>
-      <c r="V5" s="82">
+      <c r="V5" s="81">
         <v>15</v>
       </c>
-      <c r="W5" s="80">
+      <c r="W5" s="79">
         <v>16</v>
       </c>
-      <c r="X5" s="81">
+      <c r="X5" s="80">
         <v>17</v>
       </c>
-      <c r="Y5" s="81">
+      <c r="Y5" s="80">
         <v>18</v>
       </c>
-      <c r="Z5" s="81">
+      <c r="Z5" s="80">
         <v>19</v>
       </c>
-      <c r="AA5" s="81">
+      <c r="AA5" s="80">
         <v>20</v>
       </c>
-      <c r="AB5" s="81">
+      <c r="AB5" s="80">
         <v>21</v>
       </c>
-      <c r="AC5" s="82">
+      <c r="AC5" s="81">
         <v>22</v>
       </c>
-      <c r="AD5" s="80">
+      <c r="AD5" s="79">
         <v>23</v>
       </c>
-      <c r="AE5" s="81">
+      <c r="AE5" s="80">
         <v>24</v>
       </c>
-      <c r="AF5" s="81">
+      <c r="AF5" s="80">
         <v>25</v>
       </c>
-      <c r="AG5" s="81">
+      <c r="AG5" s="80">
         <v>26</v>
       </c>
-      <c r="AH5" s="81">
+      <c r="AH5" s="80">
         <v>27</v>
       </c>
-      <c r="AI5" s="81">
+      <c r="AI5" s="80">
         <v>28</v>
       </c>
-      <c r="AJ5" s="82">
+      <c r="AJ5" s="81">
         <v>29</v>
       </c>
-      <c r="AK5" s="80">
+      <c r="AK5" s="79">
         <v>30</v>
       </c>
-      <c r="AL5" s="81">
+      <c r="AL5" s="80">
         <v>1</v>
       </c>
-      <c r="AM5" s="81">
+      <c r="AM5" s="80">
         <v>2</v>
       </c>
-      <c r="AN5" s="81">
+      <c r="AN5" s="80">
         <v>3</v>
       </c>
-      <c r="AO5" s="81">
+      <c r="AO5" s="80">
         <v>4</v>
       </c>
-      <c r="AP5" s="81">
+      <c r="AP5" s="80">
         <v>5</v>
       </c>
-      <c r="AQ5" s="82">
+      <c r="AQ5" s="81">
         <v>6</v>
       </c>
-      <c r="AR5" s="80">
+      <c r="AR5" s="79">
         <v>7</v>
       </c>
-      <c r="AS5" s="81">
+      <c r="AS5" s="80">
         <v>8</v>
       </c>
-      <c r="AT5" s="81">
+      <c r="AT5" s="80">
         <v>9</v>
       </c>
-      <c r="AU5" s="81">
+      <c r="AU5" s="80">
         <v>10</v>
       </c>
-      <c r="AV5" s="81">
+      <c r="AV5" s="80">
         <v>11</v>
       </c>
-      <c r="AW5" s="81">
+      <c r="AW5" s="80">
         <v>12</v>
       </c>
-      <c r="AX5" s="82">
+      <c r="AX5" s="81">
         <v>13</v>
       </c>
-      <c r="AY5" s="80">
+      <c r="AY5" s="79">
         <v>14</v>
       </c>
-      <c r="AZ5" s="81">
+      <c r="AZ5" s="80">
         <v>15</v>
       </c>
-      <c r="BA5" s="81">
+      <c r="BA5" s="80">
         <v>16</v>
       </c>
-      <c r="BB5" s="81">
+      <c r="BB5" s="80">
         <v>17</v>
       </c>
-      <c r="BC5" s="81">
+      <c r="BC5" s="80">
         <v>18</v>
       </c>
-      <c r="BD5" s="81">
+      <c r="BD5" s="80">
         <v>19</v>
       </c>
-      <c r="BE5" s="82">
+      <c r="BE5" s="81">
         <v>20</v>
       </c>
-      <c r="BF5" s="80">
+      <c r="BF5" s="79">
         <v>21</v>
       </c>
-      <c r="BG5" s="81">
+      <c r="BG5" s="80">
         <v>22</v>
       </c>
-      <c r="BH5" s="81">
+      <c r="BH5" s="80">
         <v>23</v>
       </c>
-      <c r="BI5" s="81">
+      <c r="BI5" s="80">
         <v>24</v>
       </c>
-      <c r="BJ5" s="81">
+      <c r="BJ5" s="80">
         <v>25</v>
       </c>
-      <c r="BK5" s="81">
+      <c r="BK5" s="80">
         <v>26</v>
       </c>
-      <c r="BL5" s="82">
+      <c r="BL5" s="81">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -2521,162 +2579,162 @@
       </c>
     </row>
     <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="48"/>
+      <c r="C7" s="47"/>
       <c r="E7"/>
       <c r="H7" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="31"/>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="31"/>
-      <c r="AQ7" s="31"/>
-      <c r="AR7" s="31"/>
-      <c r="AS7" s="31"/>
-      <c r="AT7" s="31"/>
-      <c r="AU7" s="31"/>
-      <c r="AV7" s="31"/>
-      <c r="AW7" s="31"/>
-      <c r="AX7" s="31"/>
-      <c r="AY7" s="31"/>
-      <c r="AZ7" s="31"/>
-      <c r="BA7" s="31"/>
-      <c r="BB7" s="31"/>
-      <c r="BC7" s="31"/>
-      <c r="BD7" s="31"/>
-      <c r="BE7" s="31"/>
-      <c r="BF7" s="31"/>
-      <c r="BG7" s="31"/>
-      <c r="BH7" s="31"/>
-      <c r="BI7" s="31"/>
-      <c r="BJ7" s="31"/>
-      <c r="BK7" s="31"/>
-      <c r="BL7" s="31"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="30"/>
+      <c r="AP7" s="30"/>
+      <c r="AQ7" s="30"/>
+      <c r="AR7" s="30"/>
+      <c r="AS7" s="30"/>
+      <c r="AT7" s="30"/>
+      <c r="AU7" s="30"/>
+      <c r="AV7" s="30"/>
+      <c r="AW7" s="30"/>
+      <c r="AX7" s="30"/>
+      <c r="AY7" s="30"/>
+      <c r="AZ7" s="30"/>
+      <c r="BA7" s="30"/>
+      <c r="BB7" s="30"/>
+      <c r="BC7" s="30"/>
+      <c r="BD7" s="30"/>
+      <c r="BE7" s="30"/>
+      <c r="BF7" s="30"/>
+      <c r="BG7" s="30"/>
+      <c r="BH7" s="30"/>
+      <c r="BI7" s="30"/>
+      <c r="BJ7" s="30"/>
+      <c r="BK7" s="30"/>
+      <c r="BL7" s="30"/>
     </row>
     <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
         <f t="shared" ref="H8:H38" si="0">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="83"/>
-      <c r="Y8" s="83"/>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="83"/>
-      <c r="AD8" s="83"/>
-      <c r="AE8" s="83"/>
-      <c r="AF8" s="83"/>
-      <c r="AG8" s="83"/>
-      <c r="AH8" s="83"/>
-      <c r="AI8" s="83"/>
-      <c r="AJ8" s="83"/>
-      <c r="AK8" s="83"/>
-      <c r="AL8" s="83"/>
-      <c r="AM8" s="83"/>
-      <c r="AN8" s="83"/>
-      <c r="AO8" s="83"/>
-      <c r="AP8" s="83"/>
-      <c r="AQ8" s="83"/>
-      <c r="AR8" s="83"/>
-      <c r="AS8" s="83"/>
-      <c r="AT8" s="83"/>
-      <c r="AU8" s="83"/>
-      <c r="AV8" s="83"/>
-      <c r="AW8" s="83"/>
-      <c r="AX8" s="83"/>
-      <c r="AY8" s="83"/>
-      <c r="AZ8" s="83"/>
-      <c r="BA8" s="83"/>
-      <c r="BB8" s="83"/>
-      <c r="BC8" s="83"/>
-      <c r="BD8" s="83"/>
-      <c r="BE8" s="31"/>
-      <c r="BF8" s="31"/>
-      <c r="BG8" s="31"/>
-      <c r="BH8" s="31"/>
-      <c r="BI8" s="31"/>
-      <c r="BJ8" s="31"/>
-      <c r="BK8" s="31"/>
-      <c r="BL8" s="31"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="82"/>
+      <c r="AI8" s="82"/>
+      <c r="AJ8" s="82"/>
+      <c r="AK8" s="82"/>
+      <c r="AL8" s="82"/>
+      <c r="AM8" s="82"/>
+      <c r="AN8" s="82"/>
+      <c r="AO8" s="82"/>
+      <c r="AP8" s="82"/>
+      <c r="AQ8" s="82"/>
+      <c r="AR8" s="82"/>
+      <c r="AS8" s="82"/>
+      <c r="AT8" s="82"/>
+      <c r="AU8" s="82"/>
+      <c r="AV8" s="82"/>
+      <c r="AW8" s="82"/>
+      <c r="AX8" s="82"/>
+      <c r="AY8" s="82"/>
+      <c r="AZ8" s="82"/>
+      <c r="BA8" s="82"/>
+      <c r="BB8" s="82"/>
+      <c r="BC8" s="82"/>
+      <c r="BD8" s="82"/>
+      <c r="BE8" s="30"/>
+      <c r="BF8" s="30"/>
+      <c r="BG8" s="30"/>
+      <c r="BH8" s="30"/>
+      <c r="BI8" s="30"/>
+      <c r="BJ8" s="30"/>
+      <c r="BK8" s="30"/>
+      <c r="BL8" s="30"/>
     </row>
     <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="52" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="66" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="14"/>
@@ -2684,232 +2742,232 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="83"/>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="83"/>
-      <c r="AH9" s="83"/>
-      <c r="AI9" s="83"/>
-      <c r="AJ9" s="83"/>
-      <c r="AK9" s="83"/>
-      <c r="AL9" s="83"/>
-      <c r="AM9" s="83"/>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="83"/>
-      <c r="AP9" s="83"/>
-      <c r="AQ9" s="83"/>
-      <c r="AR9" s="83"/>
-      <c r="AS9" s="83"/>
-      <c r="AT9" s="83"/>
-      <c r="AU9" s="83"/>
-      <c r="AV9" s="83"/>
-      <c r="AW9" s="83"/>
-      <c r="AX9" s="83"/>
-      <c r="AY9" s="83"/>
-      <c r="AZ9" s="83"/>
-      <c r="BA9" s="83"/>
-      <c r="BB9" s="83"/>
-      <c r="BC9" s="83"/>
-      <c r="BD9" s="83"/>
-      <c r="BE9" s="31"/>
-      <c r="BF9" s="31"/>
-      <c r="BG9" s="31"/>
-      <c r="BH9" s="31"/>
-      <c r="BI9" s="31"/>
-      <c r="BJ9" s="31"/>
-      <c r="BK9" s="31"/>
-      <c r="BL9" s="31"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="82"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="82"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="82"/>
+      <c r="AN9" s="82"/>
+      <c r="AO9" s="82"/>
+      <c r="AP9" s="82"/>
+      <c r="AQ9" s="82"/>
+      <c r="AR9" s="82"/>
+      <c r="AS9" s="82"/>
+      <c r="AT9" s="82"/>
+      <c r="AU9" s="82"/>
+      <c r="AV9" s="82"/>
+      <c r="AW9" s="82"/>
+      <c r="AX9" s="82"/>
+      <c r="AY9" s="82"/>
+      <c r="AZ9" s="82"/>
+      <c r="BA9" s="82"/>
+      <c r="BB9" s="82"/>
+      <c r="BC9" s="82"/>
+      <c r="BD9" s="82"/>
+      <c r="BE9" s="30"/>
+      <c r="BF9" s="30"/>
+      <c r="BG9" s="30"/>
+      <c r="BH9" s="30"/>
+      <c r="BI9" s="30"/>
+      <c r="BJ9" s="30"/>
+      <c r="BK9" s="30"/>
+      <c r="BL9" s="30"/>
     </row>
     <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="87">
-        <v>0.25</v>
-      </c>
-      <c r="E10" s="67" t="s">
+      <c r="D10" s="86">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="66" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="83"/>
-      <c r="AC10" s="83"/>
-      <c r="AD10" s="83"/>
-      <c r="AE10" s="83"/>
-      <c r="AF10" s="83"/>
-      <c r="AG10" s="83"/>
-      <c r="AH10" s="83"/>
-      <c r="AI10" s="83"/>
-      <c r="AJ10" s="83"/>
-      <c r="AK10" s="83"/>
-      <c r="AL10" s="83"/>
-      <c r="AM10" s="83"/>
-      <c r="AN10" s="83"/>
-      <c r="AO10" s="83"/>
-      <c r="AP10" s="83"/>
-      <c r="AQ10" s="83"/>
-      <c r="AR10" s="83"/>
-      <c r="AS10" s="83"/>
-      <c r="AT10" s="83"/>
-      <c r="AU10" s="83"/>
-      <c r="AV10" s="83"/>
-      <c r="AW10" s="83"/>
-      <c r="AX10" s="83"/>
-      <c r="AY10" s="83"/>
-      <c r="AZ10" s="83"/>
-      <c r="BA10" s="83"/>
-      <c r="BB10" s="83"/>
-      <c r="BC10" s="83"/>
-      <c r="BD10" s="83"/>
-      <c r="BE10" s="31"/>
-      <c r="BF10" s="31"/>
-      <c r="BG10" s="31"/>
-      <c r="BH10" s="31"/>
-      <c r="BI10" s="31"/>
-      <c r="BJ10" s="31"/>
-      <c r="BK10" s="31"/>
-      <c r="BL10" s="31"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="82"/>
+      <c r="AL10" s="82"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="82"/>
+      <c r="AO10" s="82"/>
+      <c r="AP10" s="82"/>
+      <c r="AQ10" s="82"/>
+      <c r="AR10" s="82"/>
+      <c r="AS10" s="82"/>
+      <c r="AT10" s="82"/>
+      <c r="AU10" s="82"/>
+      <c r="AV10" s="82"/>
+      <c r="AW10" s="82"/>
+      <c r="AX10" s="82"/>
+      <c r="AY10" s="82"/>
+      <c r="AZ10" s="82"/>
+      <c r="BA10" s="82"/>
+      <c r="BB10" s="82"/>
+      <c r="BC10" s="82"/>
+      <c r="BD10" s="82"/>
+      <c r="BE10" s="30"/>
+      <c r="BF10" s="30"/>
+      <c r="BG10" s="30"/>
+      <c r="BH10" s="30"/>
+      <c r="BI10" s="30"/>
+      <c r="BJ10" s="30"/>
+      <c r="BK10" s="30"/>
+      <c r="BL10" s="30"/>
     </row>
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="44"/>
-      <c r="B11" s="85" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="87">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="67" t="s">
+      <c r="D11" s="86">
+        <v>1</v>
+      </c>
+      <c r="E11" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="67" t="s">
+      <c r="F11" s="66" t="s">
         <v>38</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="83"/>
-      <c r="Z11" s="83"/>
-      <c r="AA11" s="83"/>
-      <c r="AB11" s="83"/>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="83"/>
-      <c r="AE11" s="83"/>
-      <c r="AF11" s="83"/>
-      <c r="AG11" s="83"/>
-      <c r="AH11" s="83"/>
-      <c r="AI11" s="83"/>
-      <c r="AJ11" s="83"/>
-      <c r="AK11" s="83"/>
-      <c r="AL11" s="83"/>
-      <c r="AM11" s="83"/>
-      <c r="AN11" s="83"/>
-      <c r="AO11" s="83"/>
-      <c r="AP11" s="83"/>
-      <c r="AQ11" s="83"/>
-      <c r="AR11" s="83"/>
-      <c r="AS11" s="83"/>
-      <c r="AT11" s="83"/>
-      <c r="AU11" s="83"/>
-      <c r="AV11" s="83"/>
-      <c r="AW11" s="83"/>
-      <c r="AX11" s="83"/>
-      <c r="AY11" s="83"/>
-      <c r="AZ11" s="83"/>
-      <c r="BA11" s="83"/>
-      <c r="BB11" s="83"/>
-      <c r="BC11" s="83"/>
-      <c r="BD11" s="83"/>
-      <c r="BE11" s="31"/>
-      <c r="BF11" s="31"/>
-      <c r="BG11" s="31"/>
-      <c r="BH11" s="31"/>
-      <c r="BI11" s="31"/>
-      <c r="BJ11" s="31"/>
-      <c r="BK11" s="31"/>
-      <c r="BL11" s="31"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="82"/>
+      <c r="AH11" s="82"/>
+      <c r="AI11" s="82"/>
+      <c r="AJ11" s="82"/>
+      <c r="AK11" s="82"/>
+      <c r="AL11" s="82"/>
+      <c r="AM11" s="82"/>
+      <c r="AN11" s="82"/>
+      <c r="AO11" s="82"/>
+      <c r="AP11" s="82"/>
+      <c r="AQ11" s="82"/>
+      <c r="AR11" s="82"/>
+      <c r="AS11" s="82"/>
+      <c r="AT11" s="82"/>
+      <c r="AU11" s="82"/>
+      <c r="AV11" s="82"/>
+      <c r="AW11" s="82"/>
+      <c r="AX11" s="82"/>
+      <c r="AY11" s="82"/>
+      <c r="AZ11" s="82"/>
+      <c r="BA11" s="82"/>
+      <c r="BB11" s="82"/>
+      <c r="BC11" s="82"/>
+      <c r="BD11" s="82"/>
+      <c r="BE11" s="30"/>
+      <c r="BF11" s="30"/>
+      <c r="BG11" s="30"/>
+      <c r="BH11" s="30"/>
+      <c r="BI11" s="30"/>
+      <c r="BJ11" s="30"/>
+      <c r="BK11" s="30"/>
+      <c r="BL11" s="30"/>
     </row>
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="44"/>
-      <c r="B12" s="85" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="87">
-        <v>0.05</v>
-      </c>
-      <c r="E12" s="67" t="s">
+      <c r="D12" s="86">
+        <v>1</v>
+      </c>
+      <c r="E12" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="67" t="s">
+      <c r="F12" s="66" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="14"/>
@@ -2917,78 +2975,78 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="83"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="83"/>
-      <c r="AA12" s="83"/>
-      <c r="AB12" s="83"/>
-      <c r="AC12" s="83"/>
-      <c r="AD12" s="83"/>
-      <c r="AE12" s="83"/>
-      <c r="AF12" s="83"/>
-      <c r="AG12" s="83"/>
-      <c r="AH12" s="83"/>
-      <c r="AI12" s="83"/>
-      <c r="AJ12" s="83"/>
-      <c r="AK12" s="83"/>
-      <c r="AL12" s="83"/>
-      <c r="AM12" s="83"/>
-      <c r="AN12" s="83"/>
-      <c r="AO12" s="83"/>
-      <c r="AP12" s="83"/>
-      <c r="AQ12" s="83"/>
-      <c r="AR12" s="83"/>
-      <c r="AS12" s="83"/>
-      <c r="AT12" s="83"/>
-      <c r="AU12" s="83"/>
-      <c r="AV12" s="83"/>
-      <c r="AW12" s="83"/>
-      <c r="AX12" s="83"/>
-      <c r="AY12" s="83"/>
-      <c r="AZ12" s="83"/>
-      <c r="BA12" s="83"/>
-      <c r="BB12" s="83"/>
-      <c r="BC12" s="83"/>
-      <c r="BD12" s="83"/>
-      <c r="BE12" s="31"/>
-      <c r="BF12" s="31"/>
-      <c r="BG12" s="31"/>
-      <c r="BH12" s="31"/>
-      <c r="BI12" s="31"/>
-      <c r="BJ12" s="31"/>
-      <c r="BK12" s="31"/>
-      <c r="BL12" s="31"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="85"/>
+      <c r="Y12" s="85"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="82"/>
+      <c r="AE12" s="82"/>
+      <c r="AF12" s="82"/>
+      <c r="AG12" s="82"/>
+      <c r="AH12" s="82"/>
+      <c r="AI12" s="82"/>
+      <c r="AJ12" s="82"/>
+      <c r="AK12" s="82"/>
+      <c r="AL12" s="82"/>
+      <c r="AM12" s="82"/>
+      <c r="AN12" s="82"/>
+      <c r="AO12" s="82"/>
+      <c r="AP12" s="82"/>
+      <c r="AQ12" s="82"/>
+      <c r="AR12" s="82"/>
+      <c r="AS12" s="82"/>
+      <c r="AT12" s="82"/>
+      <c r="AU12" s="82"/>
+      <c r="AV12" s="82"/>
+      <c r="AW12" s="82"/>
+      <c r="AX12" s="82"/>
+      <c r="AY12" s="82"/>
+      <c r="AZ12" s="82"/>
+      <c r="BA12" s="82"/>
+      <c r="BB12" s="82"/>
+      <c r="BC12" s="82"/>
+      <c r="BD12" s="82"/>
+      <c r="BE12" s="30"/>
+      <c r="BF12" s="30"/>
+      <c r="BG12" s="30"/>
+      <c r="BH12" s="30"/>
+      <c r="BI12" s="30"/>
+      <c r="BJ12" s="30"/>
+      <c r="BK12" s="30"/>
+      <c r="BL12" s="30"/>
     </row>
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="44"/>
-      <c r="B13" s="85" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="87">
-        <v>0</v>
-      </c>
-      <c r="E13" s="67" t="s">
+      <c r="D13" s="86">
+        <v>1</v>
+      </c>
+      <c r="E13" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="66" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="14"/>
@@ -2996,1895 +3054,1930 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="83"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="83"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="83"/>
-      <c r="AB13" s="83"/>
-      <c r="AC13" s="83"/>
-      <c r="AD13" s="83"/>
-      <c r="AE13" s="83"/>
-      <c r="AF13" s="83"/>
-      <c r="AG13" s="83"/>
-      <c r="AH13" s="83"/>
-      <c r="AI13" s="83"/>
-      <c r="AJ13" s="83"/>
-      <c r="AK13" s="83"/>
-      <c r="AL13" s="83"/>
-      <c r="AM13" s="83"/>
-      <c r="AN13" s="83"/>
-      <c r="AO13" s="83"/>
-      <c r="AP13" s="83"/>
-      <c r="AQ13" s="83"/>
-      <c r="AR13" s="83"/>
-      <c r="AS13" s="83"/>
-      <c r="AT13" s="83"/>
-      <c r="AU13" s="83"/>
-      <c r="AV13" s="83"/>
-      <c r="AW13" s="83"/>
-      <c r="AX13" s="83"/>
-      <c r="AY13" s="83"/>
-      <c r="AZ13" s="83"/>
-      <c r="BA13" s="83"/>
-      <c r="BB13" s="83"/>
-      <c r="BC13" s="83"/>
-      <c r="BD13" s="83"/>
-      <c r="BE13" s="31"/>
-      <c r="BF13" s="31"/>
-      <c r="BG13" s="31"/>
-      <c r="BH13" s="31"/>
-      <c r="BI13" s="31"/>
-      <c r="BJ13" s="31"/>
-      <c r="BK13" s="31"/>
-      <c r="BL13" s="31"/>
-    </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="44"/>
-      <c r="B14" s="85" t="s">
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="85"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="82"/>
+      <c r="AE13" s="82"/>
+      <c r="AF13" s="82"/>
+      <c r="AG13" s="82"/>
+      <c r="AH13" s="82"/>
+      <c r="AI13" s="82"/>
+      <c r="AJ13" s="82"/>
+      <c r="AK13" s="82"/>
+      <c r="AL13" s="82"/>
+      <c r="AM13" s="82"/>
+      <c r="AN13" s="82"/>
+      <c r="AO13" s="82"/>
+      <c r="AP13" s="82"/>
+      <c r="AQ13" s="82"/>
+      <c r="AR13" s="82"/>
+      <c r="AS13" s="82"/>
+      <c r="AT13" s="82"/>
+      <c r="AU13" s="82"/>
+      <c r="AV13" s="82"/>
+      <c r="AW13" s="82"/>
+      <c r="AX13" s="82"/>
+      <c r="AY13" s="82"/>
+      <c r="AZ13" s="82"/>
+      <c r="BA13" s="82"/>
+      <c r="BB13" s="82"/>
+      <c r="BC13" s="82"/>
+      <c r="BD13" s="82"/>
+      <c r="BE13" s="30"/>
+      <c r="BF13" s="30"/>
+      <c r="BG13" s="30"/>
+      <c r="BH13" s="30"/>
+      <c r="BI13" s="30"/>
+      <c r="BJ13" s="30"/>
+      <c r="BK13" s="30"/>
+      <c r="BL13" s="30"/>
+    </row>
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="43"/>
+      <c r="B14" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="87">
-        <v>0</v>
-      </c>
-      <c r="E14" s="67" t="s">
+      <c r="D14" s="86">
+        <v>1</v>
+      </c>
+      <c r="E14" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="66" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="83"/>
-      <c r="AA14" s="83"/>
-      <c r="AB14" s="83"/>
-      <c r="AC14" s="83"/>
-      <c r="AD14" s="83"/>
-      <c r="AE14" s="83"/>
-      <c r="AF14" s="83"/>
-      <c r="AG14" s="83"/>
-      <c r="AH14" s="83"/>
-      <c r="AI14" s="83"/>
-      <c r="AJ14" s="83"/>
-      <c r="AK14" s="83"/>
-      <c r="AL14" s="83"/>
-      <c r="AM14" s="83"/>
-      <c r="AN14" s="83"/>
-      <c r="AO14" s="83"/>
-      <c r="AP14" s="83"/>
-      <c r="AQ14" s="83"/>
-      <c r="AR14" s="83"/>
-      <c r="AS14" s="83"/>
-      <c r="AT14" s="83"/>
-      <c r="AU14" s="83"/>
-      <c r="AV14" s="83"/>
-      <c r="AW14" s="83"/>
-      <c r="AX14" s="83"/>
-      <c r="AY14" s="83"/>
-      <c r="AZ14" s="83"/>
-      <c r="BA14" s="83"/>
-      <c r="BB14" s="83"/>
-      <c r="BC14" s="83"/>
-      <c r="BD14" s="83"/>
-      <c r="BE14" s="31"/>
-      <c r="BF14" s="31"/>
-      <c r="BG14" s="31"/>
-      <c r="BH14" s="31"/>
-      <c r="BI14" s="31"/>
-      <c r="BJ14" s="31"/>
-      <c r="BK14" s="31"/>
-      <c r="BL14" s="31"/>
-    </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="44"/>
-      <c r="B15" s="85" t="s">
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="82"/>
+      <c r="AH14" s="82"/>
+      <c r="AI14" s="82"/>
+      <c r="AJ14" s="82"/>
+      <c r="AK14" s="82"/>
+      <c r="AL14" s="82"/>
+      <c r="AM14" s="82"/>
+      <c r="AN14" s="82"/>
+      <c r="AO14" s="82"/>
+      <c r="AP14" s="82"/>
+      <c r="AQ14" s="82"/>
+      <c r="AR14" s="82"/>
+      <c r="AS14" s="82"/>
+      <c r="AT14" s="82"/>
+      <c r="AU14" s="82"/>
+      <c r="AV14" s="82"/>
+      <c r="AW14" s="82"/>
+      <c r="AX14" s="82"/>
+      <c r="AY14" s="82"/>
+      <c r="AZ14" s="82"/>
+      <c r="BA14" s="82"/>
+      <c r="BB14" s="82"/>
+      <c r="BC14" s="82"/>
+      <c r="BD14" s="82"/>
+      <c r="BE14" s="30"/>
+      <c r="BF14" s="30"/>
+      <c r="BG14" s="30"/>
+      <c r="BH14" s="30"/>
+      <c r="BI14" s="30"/>
+      <c r="BJ14" s="30"/>
+      <c r="BK14" s="30"/>
+      <c r="BL14" s="30"/>
+    </row>
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="43"/>
+      <c r="B15" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="86">
+        <v>1</v>
+      </c>
+      <c r="E15" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="87">
-        <v>0</v>
-      </c>
-      <c r="E15" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="67" t="s">
-        <v>46</v>
+      <c r="F15" s="66" t="s">
+        <v>45</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83"/>
-      <c r="T15" s="83"/>
-      <c r="U15" s="83"/>
-      <c r="V15" s="83"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="83"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="82"/>
       <c r="Y15" s="83"/>
-      <c r="Z15" s="83"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="83"/>
-      <c r="AC15" s="83"/>
-      <c r="AD15" s="83"/>
-      <c r="AE15" s="83"/>
-      <c r="AF15" s="83"/>
-      <c r="AG15" s="83"/>
-      <c r="AH15" s="83"/>
-      <c r="AI15" s="83"/>
-      <c r="AJ15" s="83"/>
-      <c r="AK15" s="83"/>
-      <c r="AL15" s="83"/>
-      <c r="AM15" s="83"/>
-      <c r="AN15" s="83"/>
-      <c r="AO15" s="83"/>
-      <c r="AP15" s="83"/>
-      <c r="AQ15" s="83"/>
-      <c r="AR15" s="83"/>
-      <c r="AS15" s="83"/>
-      <c r="AT15" s="83"/>
-      <c r="AU15" s="83"/>
-      <c r="AV15" s="83"/>
-      <c r="AW15" s="83"/>
-      <c r="AX15" s="83"/>
-      <c r="AY15" s="83"/>
-      <c r="AZ15" s="83"/>
-      <c r="BA15" s="83"/>
-      <c r="BB15" s="83"/>
-      <c r="BC15" s="83"/>
-      <c r="BD15" s="83"/>
-      <c r="BE15" s="31"/>
-      <c r="BF15" s="31"/>
-      <c r="BG15" s="31"/>
-      <c r="BH15" s="31"/>
-      <c r="BI15" s="31"/>
-      <c r="BJ15" s="31"/>
-      <c r="BK15" s="31"/>
-      <c r="BL15" s="31"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="82"/>
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="82"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="82"/>
+      <c r="AH15" s="82"/>
+      <c r="AI15" s="82"/>
+      <c r="AJ15" s="82"/>
+      <c r="AK15" s="82"/>
+      <c r="AL15" s="82"/>
+      <c r="AM15" s="82"/>
+      <c r="AN15" s="82"/>
+      <c r="AO15" s="82"/>
+      <c r="AP15" s="82"/>
+      <c r="AQ15" s="82"/>
+      <c r="AR15" s="82"/>
+      <c r="AS15" s="82"/>
+      <c r="AT15" s="82"/>
+      <c r="AU15" s="82"/>
+      <c r="AV15" s="82"/>
+      <c r="AW15" s="82"/>
+      <c r="AX15" s="82"/>
+      <c r="AY15" s="82"/>
+      <c r="AZ15" s="82"/>
+      <c r="BA15" s="82"/>
+      <c r="BB15" s="82"/>
+      <c r="BC15" s="82"/>
+      <c r="BD15" s="82"/>
+      <c r="BE15" s="30"/>
+      <c r="BF15" s="30"/>
+      <c r="BG15" s="30"/>
+      <c r="BH15" s="30"/>
+      <c r="BI15" s="30"/>
+      <c r="BJ15" s="30"/>
+      <c r="BK15" s="30"/>
+      <c r="BL15" s="30"/>
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="44"/>
-      <c r="B16" s="85" t="s">
+      <c r="A16" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="B16" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="87">
+      <c r="D16" s="86">
+        <v>1</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="82"/>
+      <c r="W16" s="82"/>
+      <c r="X16" s="82"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="85"/>
+      <c r="AE16" s="85"/>
+      <c r="AF16" s="85"/>
+      <c r="AG16" s="85"/>
+      <c r="AH16" s="85"/>
+      <c r="AI16" s="82"/>
+      <c r="AJ16" s="82"/>
+      <c r="AK16" s="82"/>
+      <c r="AL16" s="82"/>
+      <c r="AM16" s="82"/>
+      <c r="AN16" s="82"/>
+      <c r="AO16" s="82"/>
+      <c r="AP16" s="82"/>
+      <c r="AQ16" s="82"/>
+      <c r="AR16" s="82"/>
+      <c r="AS16" s="82"/>
+      <c r="AT16" s="82"/>
+      <c r="AU16" s="82"/>
+      <c r="AV16" s="82"/>
+      <c r="AW16" s="82"/>
+      <c r="AX16" s="82"/>
+      <c r="AY16" s="82"/>
+      <c r="AZ16" s="82"/>
+      <c r="BA16" s="82"/>
+      <c r="BB16" s="82"/>
+      <c r="BC16" s="82"/>
+      <c r="BD16" s="82"/>
+      <c r="BE16" s="30"/>
+      <c r="BF16" s="30"/>
+      <c r="BG16" s="30"/>
+      <c r="BH16" s="30"/>
+      <c r="BI16" s="30"/>
+      <c r="BJ16" s="30"/>
+      <c r="BK16" s="30"/>
+      <c r="BL16" s="30"/>
+    </row>
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="44"/>
+      <c r="B17" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="86">
+        <v>1</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="82"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="82"/>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="82"/>
+      <c r="AC17" s="82"/>
+      <c r="AD17" s="82"/>
+      <c r="AE17" s="82"/>
+      <c r="AF17" s="82"/>
+      <c r="AG17" s="85"/>
+      <c r="AH17" s="85"/>
+      <c r="AI17" s="85"/>
+      <c r="AJ17" s="82"/>
+      <c r="AK17" s="82"/>
+      <c r="AL17" s="82"/>
+      <c r="AM17" s="82"/>
+      <c r="AN17" s="82"/>
+      <c r="AO17" s="82"/>
+      <c r="AP17" s="82"/>
+      <c r="AQ17" s="82"/>
+      <c r="AR17" s="82"/>
+      <c r="AS17" s="82"/>
+      <c r="AT17" s="82"/>
+      <c r="AU17" s="82"/>
+      <c r="AV17" s="82"/>
+      <c r="AW17" s="82"/>
+      <c r="AX17" s="82"/>
+      <c r="AY17" s="82"/>
+      <c r="AZ17" s="82"/>
+      <c r="BA17" s="82"/>
+      <c r="BB17" s="82"/>
+      <c r="BC17" s="82"/>
+      <c r="BD17" s="82"/>
+      <c r="BE17" s="30"/>
+      <c r="BF17" s="30"/>
+      <c r="BG17" s="30"/>
+      <c r="BH17" s="30"/>
+      <c r="BI17" s="30"/>
+      <c r="BJ17" s="30"/>
+      <c r="BK17" s="30"/>
+      <c r="BL17" s="30"/>
+    </row>
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="43"/>
+      <c r="B18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="82"/>
+      <c r="AD18" s="82"/>
+      <c r="AE18" s="82"/>
+      <c r="AF18" s="82"/>
+      <c r="AG18" s="82"/>
+      <c r="AH18" s="82"/>
+      <c r="AI18" s="82"/>
+      <c r="AJ18" s="82"/>
+      <c r="AK18" s="82"/>
+      <c r="AL18" s="82"/>
+      <c r="AM18" s="82"/>
+      <c r="AN18" s="82"/>
+      <c r="AO18" s="82"/>
+      <c r="AP18" s="82"/>
+      <c r="AQ18" s="82"/>
+      <c r="AR18" s="82"/>
+      <c r="AS18" s="82"/>
+      <c r="AT18" s="82"/>
+      <c r="AU18" s="82"/>
+      <c r="AV18" s="82"/>
+      <c r="AW18" s="82"/>
+      <c r="AX18" s="82"/>
+      <c r="AY18" s="82"/>
+      <c r="AZ18" s="82"/>
+      <c r="BA18" s="82"/>
+      <c r="BB18" s="82"/>
+      <c r="BC18" s="82"/>
+      <c r="BD18" s="82"/>
+      <c r="BE18" s="30"/>
+      <c r="BF18" s="30"/>
+      <c r="BG18" s="30"/>
+      <c r="BH18" s="30"/>
+      <c r="BI18" s="30"/>
+      <c r="BJ18" s="30"/>
+      <c r="BK18" s="30"/>
+      <c r="BL18" s="30"/>
+    </row>
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="43"/>
+      <c r="B19" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="86">
         <v>0</v>
       </c>
-      <c r="E16" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14">
+      <c r="E19" s="69">
+        <v>44166</v>
+      </c>
+      <c r="F19" s="69">
+        <v>44167</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="82"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="82"/>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="82"/>
+      <c r="AB19" s="82"/>
+      <c r="AC19" s="82"/>
+      <c r="AD19" s="82"/>
+      <c r="AE19" s="82"/>
+      <c r="AF19" s="82"/>
+      <c r="AG19" s="82"/>
+      <c r="AH19" s="82"/>
+      <c r="AI19" s="82"/>
+      <c r="AJ19" s="82"/>
+      <c r="AK19" s="82"/>
+      <c r="AL19" s="96"/>
+      <c r="AM19" s="96"/>
+      <c r="AN19" s="97"/>
+      <c r="AO19" s="82"/>
+      <c r="AP19" s="82"/>
+      <c r="AQ19" s="82"/>
+      <c r="AR19" s="82"/>
+      <c r="AS19" s="82"/>
+      <c r="AT19" s="82"/>
+      <c r="AU19" s="82"/>
+      <c r="AV19" s="82"/>
+      <c r="AW19" s="82"/>
+      <c r="AX19" s="82"/>
+      <c r="AY19" s="82"/>
+      <c r="AZ19" s="82"/>
+      <c r="BA19" s="82"/>
+      <c r="BB19" s="82"/>
+      <c r="BC19" s="82"/>
+      <c r="BD19" s="82"/>
+      <c r="BE19" s="30"/>
+      <c r="BF19" s="30"/>
+      <c r="BG19" s="30"/>
+      <c r="BH19" s="30"/>
+      <c r="BI19" s="30"/>
+      <c r="BJ19" s="30"/>
+      <c r="BK19" s="30"/>
+      <c r="BL19" s="30"/>
+    </row>
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="43"/>
+      <c r="B20" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="86">
+        <v>0</v>
+      </c>
+      <c r="E20" s="69">
+        <v>44168</v>
+      </c>
+      <c r="F20" s="69">
+        <v>44177</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="82"/>
+      <c r="AB20" s="82"/>
+      <c r="AC20" s="82"/>
+      <c r="AD20" s="82"/>
+      <c r="AE20" s="82"/>
+      <c r="AF20" s="82"/>
+      <c r="AG20" s="82"/>
+      <c r="AH20" s="82"/>
+      <c r="AI20" s="82"/>
+      <c r="AJ20" s="82"/>
+      <c r="AK20" s="82"/>
+      <c r="AL20" s="82"/>
+      <c r="AM20" s="82"/>
+      <c r="AN20" s="96"/>
+      <c r="AO20" s="96"/>
+      <c r="AP20" s="96"/>
+      <c r="AQ20" s="96"/>
+      <c r="AR20" s="96"/>
+      <c r="AS20" s="96"/>
+      <c r="AT20" s="96"/>
+      <c r="AU20" s="96"/>
+      <c r="AV20" s="96"/>
+      <c r="AW20" s="96"/>
+      <c r="AX20" s="82"/>
+      <c r="AY20" s="82"/>
+      <c r="AZ20" s="82"/>
+      <c r="BA20" s="82"/>
+      <c r="BB20" s="82"/>
+      <c r="BC20" s="82"/>
+      <c r="BD20" s="82"/>
+      <c r="BE20" s="30"/>
+      <c r="BF20" s="30"/>
+      <c r="BG20" s="30"/>
+      <c r="BH20" s="30"/>
+      <c r="BI20" s="30"/>
+      <c r="BJ20" s="30"/>
+      <c r="BK20" s="30"/>
+      <c r="BL20" s="30"/>
+    </row>
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="43"/>
+      <c r="B21" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="86">
+        <v>0</v>
+      </c>
+      <c r="E21" s="69">
+        <v>44168</v>
+      </c>
+      <c r="F21" s="69">
+        <v>44168</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="83"/>
-      <c r="AA16" s="86"/>
-      <c r="AB16" s="83"/>
-      <c r="AC16" s="83"/>
-      <c r="AD16" s="83"/>
-      <c r="AE16" s="83"/>
-      <c r="AF16" s="83"/>
-      <c r="AG16" s="83"/>
-      <c r="AH16" s="83"/>
-      <c r="AI16" s="83"/>
-      <c r="AJ16" s="83"/>
-      <c r="AK16" s="83"/>
-      <c r="AL16" s="83"/>
-      <c r="AM16" s="83"/>
-      <c r="AN16" s="83"/>
-      <c r="AO16" s="83"/>
-      <c r="AP16" s="83"/>
-      <c r="AQ16" s="83"/>
-      <c r="AR16" s="83"/>
-      <c r="AS16" s="83"/>
-      <c r="AT16" s="83"/>
-      <c r="AU16" s="83"/>
-      <c r="AV16" s="83"/>
-      <c r="AW16" s="83"/>
-      <c r="AX16" s="83"/>
-      <c r="AY16" s="83"/>
-      <c r="AZ16" s="83"/>
-      <c r="BA16" s="83"/>
-      <c r="BB16" s="83"/>
-      <c r="BC16" s="83"/>
-      <c r="BD16" s="83"/>
-      <c r="BE16" s="31"/>
-      <c r="BF16" s="31"/>
-      <c r="BG16" s="31"/>
-      <c r="BH16" s="31"/>
-      <c r="BI16" s="31"/>
-      <c r="BJ16" s="31"/>
-      <c r="BK16" s="31"/>
-      <c r="BL16" s="31"/>
-    </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="53" t="s">
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="82"/>
+      <c r="T21" s="82"/>
+      <c r="U21" s="83"/>
+      <c r="V21" s="83"/>
+      <c r="W21" s="82"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="82"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="82"/>
+      <c r="AB21" s="82"/>
+      <c r="AC21" s="82"/>
+      <c r="AD21" s="82"/>
+      <c r="AE21" s="82"/>
+      <c r="AF21" s="82"/>
+      <c r="AG21" s="82"/>
+      <c r="AH21" s="82"/>
+      <c r="AI21" s="82"/>
+      <c r="AJ21" s="82"/>
+      <c r="AK21" s="82"/>
+      <c r="AL21" s="82"/>
+      <c r="AM21" s="82"/>
+      <c r="AN21" s="96"/>
+      <c r="AO21" s="82"/>
+      <c r="AP21" s="82"/>
+      <c r="AQ21" s="82"/>
+      <c r="AR21" s="82"/>
+      <c r="AS21" s="82"/>
+      <c r="AT21" s="82"/>
+      <c r="AU21" s="82"/>
+      <c r="AV21" s="82"/>
+      <c r="AW21" s="82"/>
+      <c r="AX21" s="82"/>
+      <c r="AY21" s="82"/>
+      <c r="AZ21" s="82"/>
+      <c r="BA21" s="82"/>
+      <c r="BB21" s="82"/>
+      <c r="BC21" s="82"/>
+      <c r="BD21" s="82"/>
+      <c r="BE21" s="30"/>
+      <c r="BF21" s="30"/>
+      <c r="BG21" s="30"/>
+      <c r="BH21" s="30"/>
+      <c r="BI21" s="30"/>
+      <c r="BJ21" s="30"/>
+      <c r="BK21" s="30"/>
+      <c r="BL21" s="30"/>
+    </row>
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="43"/>
+      <c r="B22" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="87">
+      <c r="D22" s="86">
         <v>0</v>
       </c>
-      <c r="E17" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
-      <c r="T17" s="83"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="83"/>
-      <c r="Z17" s="83"/>
-      <c r="AA17" s="83"/>
-      <c r="AB17" s="83"/>
-      <c r="AC17" s="83"/>
-      <c r="AD17" s="86"/>
-      <c r="AE17" s="86"/>
-      <c r="AF17" s="86"/>
-      <c r="AG17" s="86"/>
-      <c r="AH17" s="86"/>
-      <c r="AI17" s="83"/>
-      <c r="AJ17" s="83"/>
-      <c r="AK17" s="83"/>
-      <c r="AL17" s="83"/>
-      <c r="AM17" s="83"/>
-      <c r="AN17" s="83"/>
-      <c r="AO17" s="83"/>
-      <c r="AP17" s="83"/>
-      <c r="AQ17" s="83"/>
-      <c r="AR17" s="83"/>
-      <c r="AS17" s="83"/>
-      <c r="AT17" s="83"/>
-      <c r="AU17" s="83"/>
-      <c r="AV17" s="83"/>
-      <c r="AW17" s="83"/>
-      <c r="AX17" s="83"/>
-      <c r="AY17" s="83"/>
-      <c r="AZ17" s="83"/>
-      <c r="BA17" s="83"/>
-      <c r="BB17" s="83"/>
-      <c r="BC17" s="83"/>
-      <c r="BD17" s="83"/>
-      <c r="BE17" s="31"/>
-      <c r="BF17" s="31"/>
-      <c r="BG17" s="31"/>
-      <c r="BH17" s="31"/>
-      <c r="BI17" s="31"/>
-      <c r="BJ17" s="31"/>
-      <c r="BK17" s="31"/>
-      <c r="BL17" s="31"/>
-    </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="45"/>
-      <c r="B18" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="53" t="s">
+      <c r="E22" s="69">
+        <v>44169</v>
+      </c>
+      <c r="F22" s="69">
+        <v>44170</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="82"/>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="82"/>
+      <c r="AB22" s="82"/>
+      <c r="AC22" s="82"/>
+      <c r="AD22" s="82"/>
+      <c r="AE22" s="82"/>
+      <c r="AF22" s="82"/>
+      <c r="AG22" s="82"/>
+      <c r="AH22" s="82"/>
+      <c r="AI22" s="82"/>
+      <c r="AJ22" s="82"/>
+      <c r="AK22" s="82"/>
+      <c r="AL22" s="82"/>
+      <c r="AM22" s="82"/>
+      <c r="AN22" s="82"/>
+      <c r="AO22" s="96"/>
+      <c r="AP22" s="96"/>
+      <c r="AQ22" s="82"/>
+      <c r="AR22" s="82"/>
+      <c r="AS22" s="82"/>
+      <c r="AT22" s="82"/>
+      <c r="AU22" s="82"/>
+      <c r="AV22" s="82"/>
+      <c r="AW22" s="82"/>
+      <c r="AX22" s="82"/>
+      <c r="AY22" s="82"/>
+      <c r="AZ22" s="82"/>
+      <c r="BA22" s="82"/>
+      <c r="BB22" s="82"/>
+      <c r="BC22" s="82"/>
+      <c r="BD22" s="82"/>
+      <c r="BE22" s="30"/>
+      <c r="BF22" s="30"/>
+      <c r="BG22" s="30"/>
+      <c r="BH22" s="30"/>
+      <c r="BI22" s="30"/>
+      <c r="BJ22" s="30"/>
+      <c r="BK22" s="30"/>
+      <c r="BL22" s="30"/>
+    </row>
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="87">
+      <c r="D23" s="86">
         <v>0</v>
       </c>
-      <c r="E18" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14">
+      <c r="E23" s="69">
+        <v>44171</v>
+      </c>
+      <c r="F23" s="69">
+        <v>44172</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="82"/>
+      <c r="W23" s="82"/>
+      <c r="X23" s="82"/>
+      <c r="Y23" s="83"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="82"/>
+      <c r="AB23" s="82"/>
+      <c r="AC23" s="82"/>
+      <c r="AD23" s="82"/>
+      <c r="AE23" s="82"/>
+      <c r="AF23" s="82"/>
+      <c r="AG23" s="82"/>
+      <c r="AH23" s="82"/>
+      <c r="AI23" s="82"/>
+      <c r="AJ23" s="82"/>
+      <c r="AK23" s="82"/>
+      <c r="AL23" s="82"/>
+      <c r="AM23" s="82"/>
+      <c r="AN23" s="82"/>
+      <c r="AO23" s="82"/>
+      <c r="AP23" s="82"/>
+      <c r="AQ23" s="96"/>
+      <c r="AR23" s="96"/>
+      <c r="AS23" s="82"/>
+      <c r="AT23" s="82"/>
+      <c r="AU23" s="82"/>
+      <c r="AV23" s="82"/>
+      <c r="AW23" s="82"/>
+      <c r="AX23" s="82"/>
+      <c r="AY23" s="82"/>
+      <c r="AZ23" s="82"/>
+      <c r="BA23" s="82"/>
+      <c r="BB23" s="82"/>
+      <c r="BC23" s="82"/>
+      <c r="BD23" s="82"/>
+      <c r="BE23" s="30"/>
+      <c r="BF23" s="30"/>
+      <c r="BG23" s="30"/>
+      <c r="BH23" s="30"/>
+      <c r="BI23" s="30"/>
+      <c r="BJ23" s="30"/>
+      <c r="BK23" s="30"/>
+      <c r="BL23" s="30"/>
+    </row>
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="43"/>
+      <c r="B24" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="86">
+        <v>0</v>
+      </c>
+      <c r="E24" s="69">
+        <v>44175</v>
+      </c>
+      <c r="F24" s="69">
+        <v>44177</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="83"/>
-      <c r="U18" s="83"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="83"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="83"/>
-      <c r="AB18" s="83"/>
-      <c r="AC18" s="83"/>
-      <c r="AD18" s="83"/>
-      <c r="AE18" s="83"/>
-      <c r="AF18" s="83"/>
-      <c r="AG18" s="86"/>
-      <c r="AH18" s="86"/>
-      <c r="AI18" s="86"/>
-      <c r="AJ18" s="83"/>
-      <c r="AK18" s="83"/>
-      <c r="AL18" s="83"/>
-      <c r="AM18" s="83"/>
-      <c r="AN18" s="83"/>
-      <c r="AO18" s="83"/>
-      <c r="AP18" s="83"/>
-      <c r="AQ18" s="83"/>
-      <c r="AR18" s="83"/>
-      <c r="AS18" s="83"/>
-      <c r="AT18" s="83"/>
-      <c r="AU18" s="83"/>
-      <c r="AV18" s="83"/>
-      <c r="AW18" s="83"/>
-      <c r="AX18" s="83"/>
-      <c r="AY18" s="83"/>
-      <c r="AZ18" s="83"/>
-      <c r="BA18" s="83"/>
-      <c r="BB18" s="83"/>
-      <c r="BC18" s="83"/>
-      <c r="BD18" s="83"/>
-      <c r="BE18" s="31"/>
-      <c r="BF18" s="31"/>
-      <c r="BG18" s="31"/>
-      <c r="BH18" s="31"/>
-      <c r="BI18" s="31"/>
-      <c r="BJ18" s="31"/>
-      <c r="BK18" s="31"/>
-      <c r="BL18" s="31"/>
-    </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="44"/>
-      <c r="B19" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="83"/>
-      <c r="T19" s="83"/>
-      <c r="U19" s="83"/>
-      <c r="V19" s="83"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="83"/>
-      <c r="Y19" s="83"/>
-      <c r="Z19" s="83"/>
-      <c r="AA19" s="83"/>
-      <c r="AB19" s="83"/>
-      <c r="AC19" s="83"/>
-      <c r="AD19" s="83"/>
-      <c r="AE19" s="83"/>
-      <c r="AF19" s="83"/>
-      <c r="AG19" s="83"/>
-      <c r="AH19" s="83"/>
-      <c r="AI19" s="83"/>
-      <c r="AJ19" s="83"/>
-      <c r="AK19" s="83"/>
-      <c r="AL19" s="83"/>
-      <c r="AM19" s="83"/>
-      <c r="AN19" s="83"/>
-      <c r="AO19" s="83"/>
-      <c r="AP19" s="83"/>
-      <c r="AQ19" s="83"/>
-      <c r="AR19" s="83"/>
-      <c r="AS19" s="83"/>
-      <c r="AT19" s="83"/>
-      <c r="AU19" s="83"/>
-      <c r="AV19" s="83"/>
-      <c r="AW19" s="83"/>
-      <c r="AX19" s="83"/>
-      <c r="AY19" s="83"/>
-      <c r="AZ19" s="83"/>
-      <c r="BA19" s="83"/>
-      <c r="BB19" s="83"/>
-      <c r="BC19" s="83"/>
-      <c r="BD19" s="83"/>
-      <c r="BE19" s="31"/>
-      <c r="BF19" s="31"/>
-      <c r="BG19" s="31"/>
-      <c r="BH19" s="31"/>
-      <c r="BI19" s="31"/>
-      <c r="BJ19" s="31"/>
-      <c r="BK19" s="31"/>
-      <c r="BL19" s="31"/>
-    </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="44"/>
-      <c r="B20" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="83"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="83"/>
-      <c r="X20" s="83"/>
-      <c r="Y20" s="83"/>
-      <c r="Z20" s="83"/>
-      <c r="AA20" s="83"/>
-      <c r="AB20" s="83"/>
-      <c r="AC20" s="83"/>
-      <c r="AD20" s="83"/>
-      <c r="AE20" s="83"/>
-      <c r="AF20" s="83"/>
-      <c r="AG20" s="83"/>
-      <c r="AH20" s="83"/>
-      <c r="AI20" s="83"/>
-      <c r="AJ20" s="83"/>
-      <c r="AK20" s="83"/>
-      <c r="AL20" s="83"/>
-      <c r="AM20" s="83"/>
-      <c r="AN20" s="83"/>
-      <c r="AO20" s="83"/>
-      <c r="AP20" s="83"/>
-      <c r="AQ20" s="83"/>
-      <c r="AR20" s="83"/>
-      <c r="AS20" s="83"/>
-      <c r="AT20" s="83"/>
-      <c r="AU20" s="83"/>
-      <c r="AV20" s="83"/>
-      <c r="AW20" s="83"/>
-      <c r="AX20" s="83"/>
-      <c r="AY20" s="83"/>
-      <c r="AZ20" s="83"/>
-      <c r="BA20" s="83"/>
-      <c r="BB20" s="83"/>
-      <c r="BC20" s="83"/>
-      <c r="BD20" s="83"/>
-      <c r="BE20" s="31"/>
-      <c r="BF20" s="31"/>
-      <c r="BG20" s="31"/>
-      <c r="BH20" s="31"/>
-      <c r="BI20" s="31"/>
-      <c r="BJ20" s="31"/>
-      <c r="BK20" s="31"/>
-      <c r="BL20" s="31"/>
-    </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="44"/>
-      <c r="B21" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="83"/>
-      <c r="T21" s="83"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="83"/>
-      <c r="X21" s="83"/>
-      <c r="Y21" s="83"/>
-      <c r="Z21" s="83"/>
-      <c r="AA21" s="83"/>
-      <c r="AB21" s="83"/>
-      <c r="AC21" s="83"/>
-      <c r="AD21" s="83"/>
-      <c r="AE21" s="83"/>
-      <c r="AF21" s="83"/>
-      <c r="AG21" s="83"/>
-      <c r="AH21" s="83"/>
-      <c r="AI21" s="83"/>
-      <c r="AJ21" s="83"/>
-      <c r="AK21" s="83"/>
-      <c r="AL21" s="83"/>
-      <c r="AM21" s="83"/>
-      <c r="AN21" s="83"/>
-      <c r="AO21" s="83"/>
-      <c r="AP21" s="83"/>
-      <c r="AQ21" s="83"/>
-      <c r="AR21" s="83"/>
-      <c r="AS21" s="83"/>
-      <c r="AT21" s="83"/>
-      <c r="AU21" s="83"/>
-      <c r="AV21" s="83"/>
-      <c r="AW21" s="83"/>
-      <c r="AX21" s="83"/>
-      <c r="AY21" s="83"/>
-      <c r="AZ21" s="83"/>
-      <c r="BA21" s="83"/>
-      <c r="BB21" s="83"/>
-      <c r="BC21" s="83"/>
-      <c r="BD21" s="83"/>
-      <c r="BE21" s="31"/>
-      <c r="BF21" s="31"/>
-      <c r="BG21" s="31"/>
-      <c r="BH21" s="31"/>
-      <c r="BI21" s="31"/>
-      <c r="BJ21" s="31"/>
-      <c r="BK21" s="31"/>
-      <c r="BL21" s="31"/>
-    </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="44"/>
-      <c r="B22" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="83"/>
-      <c r="T22" s="83"/>
-      <c r="U22" s="83"/>
-      <c r="V22" s="83"/>
-      <c r="W22" s="83"/>
-      <c r="X22" s="83"/>
-      <c r="Y22" s="83"/>
-      <c r="Z22" s="83"/>
-      <c r="AA22" s="83"/>
-      <c r="AB22" s="83"/>
-      <c r="AC22" s="83"/>
-      <c r="AD22" s="83"/>
-      <c r="AE22" s="83"/>
-      <c r="AF22" s="83"/>
-      <c r="AG22" s="83"/>
-      <c r="AH22" s="83"/>
-      <c r="AI22" s="83"/>
-      <c r="AJ22" s="83"/>
-      <c r="AK22" s="83"/>
-      <c r="AL22" s="83"/>
-      <c r="AM22" s="83"/>
-      <c r="AN22" s="83"/>
-      <c r="AO22" s="83"/>
-      <c r="AP22" s="83"/>
-      <c r="AQ22" s="83"/>
-      <c r="AR22" s="83"/>
-      <c r="AS22" s="83"/>
-      <c r="AT22" s="83"/>
-      <c r="AU22" s="83"/>
-      <c r="AV22" s="83"/>
-      <c r="AW22" s="83"/>
-      <c r="AX22" s="83"/>
-      <c r="AY22" s="83"/>
-      <c r="AZ22" s="83"/>
-      <c r="BA22" s="83"/>
-      <c r="BB22" s="83"/>
-      <c r="BC22" s="83"/>
-      <c r="BD22" s="83"/>
-      <c r="BE22" s="31"/>
-      <c r="BF22" s="31"/>
-      <c r="BG22" s="31"/>
-      <c r="BH22" s="31"/>
-      <c r="BI22" s="31"/>
-      <c r="BJ22" s="31"/>
-      <c r="BK22" s="31"/>
-      <c r="BL22" s="31"/>
-    </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="83"/>
-      <c r="V23" s="83"/>
-      <c r="W23" s="83"/>
-      <c r="X23" s="83"/>
-      <c r="Y23" s="84"/>
-      <c r="Z23" s="83"/>
-      <c r="AA23" s="83"/>
-      <c r="AB23" s="83"/>
-      <c r="AC23" s="83"/>
-      <c r="AD23" s="83"/>
-      <c r="AE23" s="83"/>
-      <c r="AF23" s="83"/>
-      <c r="AG23" s="83"/>
-      <c r="AH23" s="83"/>
-      <c r="AI23" s="83"/>
-      <c r="AJ23" s="83"/>
-      <c r="AK23" s="83"/>
-      <c r="AL23" s="83"/>
-      <c r="AM23" s="83"/>
-      <c r="AN23" s="83"/>
-      <c r="AO23" s="83"/>
-      <c r="AP23" s="83"/>
-      <c r="AQ23" s="83"/>
-      <c r="AR23" s="83"/>
-      <c r="AS23" s="83"/>
-      <c r="AT23" s="83"/>
-      <c r="AU23" s="83"/>
-      <c r="AV23" s="83"/>
-      <c r="AW23" s="83"/>
-      <c r="AX23" s="83"/>
-      <c r="AY23" s="83"/>
-      <c r="AZ23" s="83"/>
-      <c r="BA23" s="83"/>
-      <c r="BB23" s="83"/>
-      <c r="BC23" s="83"/>
-      <c r="BD23" s="83"/>
-      <c r="BE23" s="31"/>
-      <c r="BF23" s="31"/>
-      <c r="BG23" s="31"/>
-      <c r="BH23" s="31"/>
-      <c r="BI23" s="31"/>
-      <c r="BJ23" s="31"/>
-      <c r="BK23" s="31"/>
-      <c r="BL23" s="31"/>
-    </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="44"/>
-      <c r="B24" s="61" t="s">
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="82"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="82"/>
+      <c r="AB24" s="82"/>
+      <c r="AC24" s="82"/>
+      <c r="AD24" s="82"/>
+      <c r="AE24" s="82"/>
+      <c r="AF24" s="82"/>
+      <c r="AG24" s="82"/>
+      <c r="AH24" s="82"/>
+      <c r="AI24" s="82"/>
+      <c r="AJ24" s="82"/>
+      <c r="AK24" s="82"/>
+      <c r="AL24" s="82"/>
+      <c r="AM24" s="82"/>
+      <c r="AN24" s="82"/>
+      <c r="AO24" s="82"/>
+      <c r="AP24" s="82"/>
+      <c r="AQ24" s="82"/>
+      <c r="AR24" s="82"/>
+      <c r="AS24" s="82"/>
+      <c r="AT24" s="82"/>
+      <c r="AU24" s="96"/>
+      <c r="AV24" s="96"/>
+      <c r="AW24" s="96"/>
+      <c r="AX24" s="82"/>
+      <c r="AY24" s="82"/>
+      <c r="AZ24" s="82"/>
+      <c r="BA24" s="82"/>
+      <c r="BB24" s="82"/>
+      <c r="BC24" s="82"/>
+      <c r="BD24" s="82"/>
+      <c r="BE24" s="30"/>
+      <c r="BF24" s="30"/>
+      <c r="BG24" s="30"/>
+      <c r="BH24" s="30"/>
+      <c r="BI24" s="30"/>
+      <c r="BJ24" s="30"/>
+      <c r="BK24" s="30"/>
+      <c r="BL24" s="30"/>
+    </row>
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="43"/>
+      <c r="B25" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
-      <c r="T24" s="83"/>
-      <c r="U24" s="83"/>
-      <c r="V24" s="83"/>
-      <c r="W24" s="83"/>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="83"/>
-      <c r="Z24" s="83"/>
-      <c r="AA24" s="83"/>
-      <c r="AB24" s="83"/>
-      <c r="AC24" s="83"/>
-      <c r="AD24" s="83"/>
-      <c r="AE24" s="83"/>
-      <c r="AF24" s="83"/>
-      <c r="AG24" s="83"/>
-      <c r="AH24" s="83"/>
-      <c r="AI24" s="83"/>
-      <c r="AJ24" s="83"/>
-      <c r="AK24" s="83"/>
-      <c r="AL24" s="83"/>
-      <c r="AM24" s="83"/>
-      <c r="AN24" s="83"/>
-      <c r="AO24" s="83"/>
-      <c r="AP24" s="83"/>
-      <c r="AQ24" s="83"/>
-      <c r="AR24" s="83"/>
-      <c r="AS24" s="83"/>
-      <c r="AT24" s="83"/>
-      <c r="AU24" s="83"/>
-      <c r="AV24" s="83"/>
-      <c r="AW24" s="83"/>
-      <c r="AX24" s="83"/>
-      <c r="AY24" s="83"/>
-      <c r="AZ24" s="83"/>
-      <c r="BA24" s="83"/>
-      <c r="BB24" s="83"/>
-      <c r="BC24" s="83"/>
-      <c r="BD24" s="83"/>
-      <c r="BE24" s="31"/>
-      <c r="BF24" s="31"/>
-      <c r="BG24" s="31"/>
-      <c r="BH24" s="31"/>
-      <c r="BI24" s="31"/>
-      <c r="BJ24" s="31"/>
-      <c r="BK24" s="31"/>
-      <c r="BL24" s="31"/>
-    </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="44"/>
-      <c r="B25" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="72"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="71"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="83"/>
-      <c r="U25" s="83"/>
-      <c r="V25" s="83"/>
-      <c r="W25" s="83"/>
-      <c r="X25" s="83"/>
-      <c r="Y25" s="83"/>
-      <c r="Z25" s="83"/>
-      <c r="AA25" s="83"/>
-      <c r="AB25" s="83"/>
-      <c r="AC25" s="83"/>
-      <c r="AD25" s="83"/>
-      <c r="AE25" s="83"/>
-      <c r="AF25" s="83"/>
-      <c r="AG25" s="83"/>
-      <c r="AH25" s="83"/>
-      <c r="AI25" s="83"/>
-      <c r="AJ25" s="83"/>
-      <c r="AK25" s="83"/>
-      <c r="AL25" s="83"/>
-      <c r="AM25" s="83"/>
-      <c r="AN25" s="83"/>
-      <c r="AO25" s="83"/>
-      <c r="AP25" s="83"/>
-      <c r="AQ25" s="83"/>
-      <c r="AR25" s="83"/>
-      <c r="AS25" s="83"/>
-      <c r="AT25" s="83"/>
-      <c r="AU25" s="83"/>
-      <c r="AV25" s="83"/>
-      <c r="AW25" s="83"/>
-      <c r="AX25" s="83"/>
-      <c r="AY25" s="83"/>
-      <c r="AZ25" s="83"/>
-      <c r="BA25" s="83"/>
-      <c r="BB25" s="83"/>
-      <c r="BC25" s="83"/>
-      <c r="BD25" s="83"/>
-      <c r="BE25" s="31"/>
-      <c r="BF25" s="31"/>
-      <c r="BG25" s="31"/>
-      <c r="BH25" s="31"/>
-      <c r="BI25" s="31"/>
-      <c r="BJ25" s="31"/>
-      <c r="BK25" s="31"/>
-      <c r="BL25" s="31"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="82"/>
+      <c r="R25" s="82"/>
+      <c r="S25" s="82"/>
+      <c r="T25" s="82"/>
+      <c r="U25" s="82"/>
+      <c r="V25" s="82"/>
+      <c r="W25" s="82"/>
+      <c r="X25" s="82"/>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="82"/>
+      <c r="AB25" s="82"/>
+      <c r="AC25" s="82"/>
+      <c r="AD25" s="82"/>
+      <c r="AE25" s="82"/>
+      <c r="AF25" s="82"/>
+      <c r="AG25" s="82"/>
+      <c r="AH25" s="82"/>
+      <c r="AI25" s="82"/>
+      <c r="AJ25" s="82"/>
+      <c r="AK25" s="82"/>
+      <c r="AL25" s="82"/>
+      <c r="AM25" s="82"/>
+      <c r="AN25" s="82"/>
+      <c r="AO25" s="82"/>
+      <c r="AP25" s="82"/>
+      <c r="AQ25" s="82"/>
+      <c r="AR25" s="82"/>
+      <c r="AS25" s="82"/>
+      <c r="AT25" s="82"/>
+      <c r="AU25" s="82"/>
+      <c r="AV25" s="82"/>
+      <c r="AW25" s="82"/>
+      <c r="AX25" s="82"/>
+      <c r="AY25" s="82"/>
+      <c r="AZ25" s="82"/>
+      <c r="BA25" s="82"/>
+      <c r="BB25" s="82"/>
+      <c r="BC25" s="82"/>
+      <c r="BD25" s="82"/>
+      <c r="BE25" s="30"/>
+      <c r="BF25" s="30"/>
+      <c r="BG25" s="30"/>
+      <c r="BH25" s="30"/>
+      <c r="BI25" s="30"/>
+      <c r="BJ25" s="30"/>
+      <c r="BK25" s="30"/>
+      <c r="BL25" s="30"/>
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="44"/>
-      <c r="B26" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="56"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="83"/>
-      <c r="U26" s="83"/>
-      <c r="V26" s="83"/>
-      <c r="W26" s="83"/>
-      <c r="X26" s="83"/>
-      <c r="Y26" s="83"/>
-      <c r="Z26" s="83"/>
-      <c r="AA26" s="83"/>
-      <c r="AB26" s="83"/>
-      <c r="AC26" s="83"/>
-      <c r="AD26" s="83"/>
-      <c r="AE26" s="83"/>
-      <c r="AF26" s="83"/>
-      <c r="AG26" s="83"/>
-      <c r="AH26" s="83"/>
-      <c r="AI26" s="83"/>
-      <c r="AJ26" s="83"/>
-      <c r="AK26" s="83"/>
-      <c r="AL26" s="83"/>
-      <c r="AM26" s="83"/>
-      <c r="AN26" s="83"/>
-      <c r="AO26" s="83"/>
-      <c r="AP26" s="83"/>
-      <c r="AQ26" s="83"/>
-      <c r="AR26" s="83"/>
-      <c r="AS26" s="83"/>
-      <c r="AT26" s="83"/>
-      <c r="AU26" s="83"/>
-      <c r="AV26" s="83"/>
-      <c r="AW26" s="83"/>
-      <c r="AX26" s="83"/>
-      <c r="AY26" s="83"/>
-      <c r="AZ26" s="83"/>
-      <c r="BA26" s="83"/>
-      <c r="BB26" s="83"/>
-      <c r="BC26" s="83"/>
-      <c r="BD26" s="83"/>
-      <c r="BE26" s="31"/>
-      <c r="BF26" s="31"/>
-      <c r="BG26" s="31"/>
-      <c r="BH26" s="31"/>
-      <c r="BI26" s="31"/>
-      <c r="BJ26" s="31"/>
-      <c r="BK26" s="31"/>
-      <c r="BL26" s="31"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="82"/>
+      <c r="V26" s="82"/>
+      <c r="W26" s="82"/>
+      <c r="X26" s="82"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="82"/>
+      <c r="AA26" s="82"/>
+      <c r="AB26" s="82"/>
+      <c r="AC26" s="82"/>
+      <c r="AD26" s="82"/>
+      <c r="AE26" s="82"/>
+      <c r="AF26" s="82"/>
+      <c r="AG26" s="82"/>
+      <c r="AH26" s="82"/>
+      <c r="AI26" s="82"/>
+      <c r="AJ26" s="82"/>
+      <c r="AK26" s="82"/>
+      <c r="AL26" s="82"/>
+      <c r="AM26" s="82"/>
+      <c r="AN26" s="82"/>
+      <c r="AO26" s="82"/>
+      <c r="AP26" s="82"/>
+      <c r="AQ26" s="82"/>
+      <c r="AR26" s="82"/>
+      <c r="AS26" s="82"/>
+      <c r="AT26" s="82"/>
+      <c r="AU26" s="82"/>
+      <c r="AV26" s="82"/>
+      <c r="AW26" s="82"/>
+      <c r="AX26" s="82"/>
+      <c r="AY26" s="82"/>
+      <c r="AZ26" s="82"/>
+      <c r="BA26" s="82"/>
+      <c r="BB26" s="82"/>
+      <c r="BC26" s="82"/>
+      <c r="BD26" s="82"/>
+      <c r="BE26" s="30"/>
+      <c r="BF26" s="30"/>
+      <c r="BG26" s="30"/>
+      <c r="BH26" s="30"/>
+      <c r="BI26" s="30"/>
+      <c r="BJ26" s="30"/>
+      <c r="BK26" s="30"/>
+      <c r="BL26" s="30"/>
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="44"/>
-      <c r="B27" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="83"/>
-      <c r="U27" s="83"/>
-      <c r="V27" s="83"/>
-      <c r="W27" s="83"/>
-      <c r="X27" s="83"/>
-      <c r="Y27" s="83"/>
-      <c r="Z27" s="83"/>
-      <c r="AA27" s="83"/>
-      <c r="AB27" s="83"/>
-      <c r="AC27" s="83"/>
-      <c r="AD27" s="83"/>
-      <c r="AE27" s="83"/>
-      <c r="AF27" s="83"/>
-      <c r="AG27" s="83"/>
-      <c r="AH27" s="83"/>
-      <c r="AI27" s="83"/>
-      <c r="AJ27" s="83"/>
-      <c r="AK27" s="83"/>
-      <c r="AL27" s="83"/>
-      <c r="AM27" s="83"/>
-      <c r="AN27" s="83"/>
-      <c r="AO27" s="83"/>
-      <c r="AP27" s="83"/>
-      <c r="AQ27" s="83"/>
-      <c r="AR27" s="83"/>
-      <c r="AS27" s="83"/>
-      <c r="AT27" s="83"/>
-      <c r="AU27" s="83"/>
-      <c r="AV27" s="83"/>
-      <c r="AW27" s="83"/>
-      <c r="AX27" s="83"/>
-      <c r="AY27" s="83"/>
-      <c r="AZ27" s="83"/>
-      <c r="BA27" s="83"/>
-      <c r="BB27" s="83"/>
-      <c r="BC27" s="83"/>
-      <c r="BD27" s="83"/>
-      <c r="BE27" s="31"/>
-      <c r="BF27" s="31"/>
-      <c r="BG27" s="31"/>
-      <c r="BH27" s="31"/>
-      <c r="BI27" s="31"/>
-      <c r="BJ27" s="31"/>
-      <c r="BK27" s="31"/>
-      <c r="BL27" s="31"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="82"/>
+      <c r="S27" s="82"/>
+      <c r="T27" s="82"/>
+      <c r="U27" s="82"/>
+      <c r="V27" s="82"/>
+      <c r="W27" s="82"/>
+      <c r="X27" s="82"/>
+      <c r="Y27" s="82"/>
+      <c r="Z27" s="82"/>
+      <c r="AA27" s="82"/>
+      <c r="AB27" s="82"/>
+      <c r="AC27" s="82"/>
+      <c r="AD27" s="82"/>
+      <c r="AE27" s="82"/>
+      <c r="AF27" s="82"/>
+      <c r="AG27" s="82"/>
+      <c r="AH27" s="82"/>
+      <c r="AI27" s="82"/>
+      <c r="AJ27" s="82"/>
+      <c r="AK27" s="82"/>
+      <c r="AL27" s="82"/>
+      <c r="AM27" s="82"/>
+      <c r="AN27" s="82"/>
+      <c r="AO27" s="82"/>
+      <c r="AP27" s="82"/>
+      <c r="AQ27" s="82"/>
+      <c r="AR27" s="82"/>
+      <c r="AS27" s="82"/>
+      <c r="AT27" s="82"/>
+      <c r="AU27" s="82"/>
+      <c r="AV27" s="82"/>
+      <c r="AW27" s="82"/>
+      <c r="AX27" s="82"/>
+      <c r="AY27" s="82"/>
+      <c r="AZ27" s="82"/>
+      <c r="BA27" s="82"/>
+      <c r="BB27" s="82"/>
+      <c r="BC27" s="82"/>
+      <c r="BD27" s="82"/>
+      <c r="BE27" s="30"/>
+      <c r="BF27" s="30"/>
+      <c r="BG27" s="30"/>
+      <c r="BH27" s="30"/>
+      <c r="BI27" s="30"/>
+      <c r="BJ27" s="30"/>
+      <c r="BK27" s="30"/>
+      <c r="BL27" s="30"/>
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="44"/>
-      <c r="B28" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="56"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="83"/>
-      <c r="U28" s="83"/>
-      <c r="V28" s="83"/>
-      <c r="W28" s="83"/>
-      <c r="X28" s="83"/>
-      <c r="Y28" s="83"/>
-      <c r="Z28" s="83"/>
-      <c r="AA28" s="83"/>
-      <c r="AB28" s="83"/>
-      <c r="AC28" s="83"/>
-      <c r="AD28" s="83"/>
-      <c r="AE28" s="83"/>
-      <c r="AF28" s="83"/>
-      <c r="AG28" s="83"/>
-      <c r="AH28" s="83"/>
-      <c r="AI28" s="83"/>
-      <c r="AJ28" s="83"/>
-      <c r="AK28" s="83"/>
-      <c r="AL28" s="83"/>
-      <c r="AM28" s="83"/>
-      <c r="AN28" s="83"/>
-      <c r="AO28" s="83"/>
-      <c r="AP28" s="83"/>
-      <c r="AQ28" s="83"/>
-      <c r="AR28" s="83"/>
-      <c r="AS28" s="83"/>
-      <c r="AT28" s="83"/>
-      <c r="AU28" s="83"/>
-      <c r="AV28" s="83"/>
-      <c r="AW28" s="83"/>
-      <c r="AX28" s="83"/>
-      <c r="AY28" s="83"/>
-      <c r="AZ28" s="83"/>
-      <c r="BA28" s="83"/>
-      <c r="BB28" s="83"/>
-      <c r="BC28" s="83"/>
-      <c r="BD28" s="83"/>
-      <c r="BE28" s="31"/>
-      <c r="BF28" s="31"/>
-      <c r="BG28" s="31"/>
-      <c r="BH28" s="31"/>
-      <c r="BI28" s="31"/>
-      <c r="BJ28" s="31"/>
-      <c r="BK28" s="31"/>
-      <c r="BL28" s="31"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="82"/>
+      <c r="U28" s="82"/>
+      <c r="V28" s="82"/>
+      <c r="W28" s="82"/>
+      <c r="X28" s="82"/>
+      <c r="Y28" s="82"/>
+      <c r="Z28" s="82"/>
+      <c r="AA28" s="82"/>
+      <c r="AB28" s="82"/>
+      <c r="AC28" s="82"/>
+      <c r="AD28" s="82"/>
+      <c r="AE28" s="82"/>
+      <c r="AF28" s="82"/>
+      <c r="AG28" s="82"/>
+      <c r="AH28" s="82"/>
+      <c r="AI28" s="82"/>
+      <c r="AJ28" s="82"/>
+      <c r="AK28" s="82"/>
+      <c r="AL28" s="82"/>
+      <c r="AM28" s="82"/>
+      <c r="AN28" s="82"/>
+      <c r="AO28" s="82"/>
+      <c r="AP28" s="82"/>
+      <c r="AQ28" s="82"/>
+      <c r="AR28" s="82"/>
+      <c r="AS28" s="82"/>
+      <c r="AT28" s="82"/>
+      <c r="AU28" s="82"/>
+      <c r="AV28" s="82"/>
+      <c r="AW28" s="82"/>
+      <c r="AX28" s="82"/>
+      <c r="AY28" s="82"/>
+      <c r="AZ28" s="82"/>
+      <c r="BA28" s="82"/>
+      <c r="BB28" s="82"/>
+      <c r="BC28" s="82"/>
+      <c r="BD28" s="82"/>
+      <c r="BE28" s="30"/>
+      <c r="BF28" s="30"/>
+      <c r="BG28" s="30"/>
+      <c r="BH28" s="30"/>
+      <c r="BI28" s="30"/>
+      <c r="BJ28" s="30"/>
+      <c r="BK28" s="30"/>
+      <c r="BL28" s="30"/>
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="83"/>
-      <c r="U29" s="83"/>
-      <c r="V29" s="83"/>
-      <c r="W29" s="83"/>
-      <c r="X29" s="83"/>
-      <c r="Y29" s="83"/>
-      <c r="Z29" s="83"/>
-      <c r="AA29" s="83"/>
-      <c r="AB29" s="83"/>
-      <c r="AC29" s="83"/>
-      <c r="AD29" s="83"/>
-      <c r="AE29" s="83"/>
-      <c r="AF29" s="83"/>
-      <c r="AG29" s="83"/>
-      <c r="AH29" s="83"/>
-      <c r="AI29" s="83"/>
-      <c r="AJ29" s="83"/>
-      <c r="AK29" s="83"/>
-      <c r="AL29" s="83"/>
-      <c r="AM29" s="83"/>
-      <c r="AN29" s="83"/>
-      <c r="AO29" s="83"/>
-      <c r="AP29" s="83"/>
-      <c r="AQ29" s="83"/>
-      <c r="AR29" s="83"/>
-      <c r="AS29" s="83"/>
-      <c r="AT29" s="83"/>
-      <c r="AU29" s="83"/>
-      <c r="AV29" s="83"/>
-      <c r="AW29" s="83"/>
-      <c r="AX29" s="83"/>
-      <c r="AY29" s="83"/>
-      <c r="AZ29" s="83"/>
-      <c r="BA29" s="83"/>
-      <c r="BB29" s="83"/>
-      <c r="BC29" s="83"/>
-      <c r="BD29" s="83"/>
-      <c r="BE29" s="31"/>
-      <c r="BF29" s="31"/>
-      <c r="BG29" s="31"/>
-      <c r="BH29" s="31"/>
-      <c r="BI29" s="31"/>
-      <c r="BJ29" s="31"/>
-      <c r="BK29" s="31"/>
-      <c r="BL29" s="31"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="82"/>
+      <c r="T29" s="82"/>
+      <c r="U29" s="82"/>
+      <c r="V29" s="82"/>
+      <c r="W29" s="82"/>
+      <c r="X29" s="82"/>
+      <c r="Y29" s="82"/>
+      <c r="Z29" s="82"/>
+      <c r="AA29" s="82"/>
+      <c r="AB29" s="82"/>
+      <c r="AC29" s="82"/>
+      <c r="AD29" s="82"/>
+      <c r="AE29" s="82"/>
+      <c r="AF29" s="82"/>
+      <c r="AG29" s="82"/>
+      <c r="AH29" s="82"/>
+      <c r="AI29" s="82"/>
+      <c r="AJ29" s="82"/>
+      <c r="AK29" s="82"/>
+      <c r="AL29" s="82"/>
+      <c r="AM29" s="82"/>
+      <c r="AN29" s="82"/>
+      <c r="AO29" s="82"/>
+      <c r="AP29" s="82"/>
+      <c r="AQ29" s="82"/>
+      <c r="AR29" s="82"/>
+      <c r="AS29" s="82"/>
+      <c r="AT29" s="82"/>
+      <c r="AU29" s="82"/>
+      <c r="AV29" s="82"/>
+      <c r="AW29" s="82"/>
+      <c r="AX29" s="82"/>
+      <c r="AY29" s="82"/>
+      <c r="AZ29" s="82"/>
+      <c r="BA29" s="82"/>
+      <c r="BB29" s="82"/>
+      <c r="BC29" s="82"/>
+      <c r="BD29" s="82"/>
+      <c r="BE29" s="30"/>
+      <c r="BF29" s="30"/>
+      <c r="BG29" s="30"/>
+      <c r="BH29" s="30"/>
+      <c r="BI29" s="30"/>
+      <c r="BJ29" s="30"/>
+      <c r="BK29" s="30"/>
+      <c r="BL29" s="30"/>
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="44"/>
-      <c r="B30" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="56"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="83"/>
-      <c r="T30" s="83"/>
-      <c r="U30" s="83"/>
-      <c r="V30" s="83"/>
-      <c r="W30" s="83"/>
-      <c r="X30" s="83"/>
-      <c r="Y30" s="83"/>
-      <c r="Z30" s="83"/>
-      <c r="AA30" s="83"/>
-      <c r="AB30" s="83"/>
-      <c r="AC30" s="83"/>
-      <c r="AD30" s="83"/>
-      <c r="AE30" s="83"/>
-      <c r="AF30" s="83"/>
-      <c r="AG30" s="83"/>
-      <c r="AH30" s="83"/>
-      <c r="AI30" s="83"/>
-      <c r="AJ30" s="83"/>
-      <c r="AK30" s="83"/>
-      <c r="AL30" s="83"/>
-      <c r="AM30" s="83"/>
-      <c r="AN30" s="83"/>
-      <c r="AO30" s="83"/>
-      <c r="AP30" s="83"/>
-      <c r="AQ30" s="83"/>
-      <c r="AR30" s="83"/>
-      <c r="AS30" s="83"/>
-      <c r="AT30" s="83"/>
-      <c r="AU30" s="83"/>
-      <c r="AV30" s="83"/>
-      <c r="AW30" s="83"/>
-      <c r="AX30" s="83"/>
-      <c r="AY30" s="83"/>
-      <c r="AZ30" s="83"/>
-      <c r="BA30" s="83"/>
-      <c r="BB30" s="83"/>
-      <c r="BC30" s="83"/>
-      <c r="BD30" s="83"/>
-      <c r="BE30" s="31"/>
-      <c r="BF30" s="31"/>
-      <c r="BG30" s="31"/>
-      <c r="BH30" s="31"/>
-      <c r="BI30" s="31"/>
-      <c r="BJ30" s="31"/>
-      <c r="BK30" s="31"/>
-      <c r="BL30" s="31"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="82"/>
+      <c r="U30" s="82"/>
+      <c r="V30" s="82"/>
+      <c r="W30" s="82"/>
+      <c r="X30" s="82"/>
+      <c r="Y30" s="82"/>
+      <c r="Z30" s="82"/>
+      <c r="AA30" s="82"/>
+      <c r="AB30" s="82"/>
+      <c r="AC30" s="82"/>
+      <c r="AD30" s="82"/>
+      <c r="AE30" s="82"/>
+      <c r="AF30" s="82"/>
+      <c r="AG30" s="82"/>
+      <c r="AH30" s="82"/>
+      <c r="AI30" s="82"/>
+      <c r="AJ30" s="82"/>
+      <c r="AK30" s="82"/>
+      <c r="AL30" s="82"/>
+      <c r="AM30" s="82"/>
+      <c r="AN30" s="82"/>
+      <c r="AO30" s="82"/>
+      <c r="AP30" s="82"/>
+      <c r="AQ30" s="82"/>
+      <c r="AR30" s="82"/>
+      <c r="AS30" s="82"/>
+      <c r="AT30" s="82"/>
+      <c r="AU30" s="82"/>
+      <c r="AV30" s="82"/>
+      <c r="AW30" s="82"/>
+      <c r="AX30" s="82"/>
+      <c r="AY30" s="82"/>
+      <c r="AZ30" s="82"/>
+      <c r="BA30" s="82"/>
+      <c r="BB30" s="82"/>
+      <c r="BC30" s="82"/>
+      <c r="BD30" s="82"/>
+      <c r="BE30" s="30"/>
+      <c r="BF30" s="30"/>
+      <c r="BG30" s="30"/>
+      <c r="BH30" s="30"/>
+      <c r="BI30" s="30"/>
+      <c r="BJ30" s="30"/>
+      <c r="BK30" s="30"/>
+      <c r="BL30" s="30"/>
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="44"/>
-      <c r="B31" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="75"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="57"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="74"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="83"/>
-      <c r="O31" s="83"/>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="83"/>
-      <c r="S31" s="83"/>
-      <c r="T31" s="83"/>
-      <c r="U31" s="83"/>
-      <c r="V31" s="83"/>
-      <c r="W31" s="83"/>
-      <c r="X31" s="83"/>
-      <c r="Y31" s="83"/>
-      <c r="Z31" s="83"/>
-      <c r="AA31" s="83"/>
-      <c r="AB31" s="83"/>
-      <c r="AC31" s="83"/>
-      <c r="AD31" s="83"/>
-      <c r="AE31" s="83"/>
-      <c r="AF31" s="83"/>
-      <c r="AG31" s="83"/>
-      <c r="AH31" s="83"/>
-      <c r="AI31" s="83"/>
-      <c r="AJ31" s="83"/>
-      <c r="AK31" s="83"/>
-      <c r="AL31" s="83"/>
-      <c r="AM31" s="83"/>
-      <c r="AN31" s="83"/>
-      <c r="AO31" s="83"/>
-      <c r="AP31" s="83"/>
-      <c r="AQ31" s="83"/>
-      <c r="AR31" s="83"/>
-      <c r="AS31" s="83"/>
-      <c r="AT31" s="83"/>
-      <c r="AU31" s="83"/>
-      <c r="AV31" s="83"/>
-      <c r="AW31" s="83"/>
-      <c r="AX31" s="83"/>
-      <c r="AY31" s="83"/>
-      <c r="AZ31" s="83"/>
-      <c r="BA31" s="83"/>
-      <c r="BB31" s="83"/>
-      <c r="BC31" s="83"/>
-      <c r="BD31" s="83"/>
-      <c r="BE31" s="31"/>
-      <c r="BF31" s="31"/>
-      <c r="BG31" s="31"/>
-      <c r="BH31" s="31"/>
-      <c r="BI31" s="31"/>
-      <c r="BJ31" s="31"/>
-      <c r="BK31" s="31"/>
-      <c r="BL31" s="31"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="82"/>
+      <c r="Y31" s="82"/>
+      <c r="Z31" s="82"/>
+      <c r="AA31" s="82"/>
+      <c r="AB31" s="82"/>
+      <c r="AC31" s="82"/>
+      <c r="AD31" s="82"/>
+      <c r="AE31" s="82"/>
+      <c r="AF31" s="82"/>
+      <c r="AG31" s="82"/>
+      <c r="AH31" s="82"/>
+      <c r="AI31" s="82"/>
+      <c r="AJ31" s="82"/>
+      <c r="AK31" s="82"/>
+      <c r="AL31" s="82"/>
+      <c r="AM31" s="82"/>
+      <c r="AN31" s="82"/>
+      <c r="AO31" s="82"/>
+      <c r="AP31" s="82"/>
+      <c r="AQ31" s="82"/>
+      <c r="AR31" s="82"/>
+      <c r="AS31" s="82"/>
+      <c r="AT31" s="82"/>
+      <c r="AU31" s="82"/>
+      <c r="AV31" s="82"/>
+      <c r="AW31" s="82"/>
+      <c r="AX31" s="82"/>
+      <c r="AY31" s="82"/>
+      <c r="AZ31" s="82"/>
+      <c r="BA31" s="82"/>
+      <c r="BB31" s="82"/>
+      <c r="BC31" s="82"/>
+      <c r="BD31" s="82"/>
+      <c r="BE31" s="30"/>
+      <c r="BF31" s="30"/>
+      <c r="BG31" s="30"/>
+      <c r="BH31" s="30"/>
+      <c r="BI31" s="30"/>
+      <c r="BJ31" s="30"/>
+      <c r="BK31" s="30"/>
+      <c r="BL31" s="30"/>
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="44"/>
-      <c r="B32" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="58"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="83"/>
-      <c r="S32" s="83"/>
-      <c r="T32" s="83"/>
-      <c r="U32" s="83"/>
-      <c r="V32" s="83"/>
-      <c r="W32" s="83"/>
-      <c r="X32" s="83"/>
-      <c r="Y32" s="83"/>
-      <c r="Z32" s="83"/>
-      <c r="AA32" s="83"/>
-      <c r="AB32" s="83"/>
-      <c r="AC32" s="83"/>
-      <c r="AD32" s="83"/>
-      <c r="AE32" s="83"/>
-      <c r="AF32" s="83"/>
-      <c r="AG32" s="83"/>
-      <c r="AH32" s="83"/>
-      <c r="AI32" s="83"/>
-      <c r="AJ32" s="83"/>
-      <c r="AK32" s="83"/>
-      <c r="AL32" s="83"/>
-      <c r="AM32" s="83"/>
-      <c r="AN32" s="83"/>
-      <c r="AO32" s="83"/>
-      <c r="AP32" s="83"/>
-      <c r="AQ32" s="83"/>
-      <c r="AR32" s="83"/>
-      <c r="AS32" s="83"/>
-      <c r="AT32" s="83"/>
-      <c r="AU32" s="83"/>
-      <c r="AV32" s="83"/>
-      <c r="AW32" s="83"/>
-      <c r="AX32" s="83"/>
-      <c r="AY32" s="83"/>
-      <c r="AZ32" s="83"/>
-      <c r="BA32" s="83"/>
-      <c r="BB32" s="83"/>
-      <c r="BC32" s="83"/>
-      <c r="BD32" s="83"/>
-      <c r="BE32" s="31"/>
-      <c r="BF32" s="31"/>
-      <c r="BG32" s="31"/>
-      <c r="BH32" s="31"/>
-      <c r="BI32" s="31"/>
-      <c r="BJ32" s="31"/>
-      <c r="BK32" s="31"/>
-      <c r="BL32" s="31"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="82"/>
+      <c r="R32" s="82"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="82"/>
+      <c r="U32" s="82"/>
+      <c r="V32" s="82"/>
+      <c r="W32" s="82"/>
+      <c r="X32" s="82"/>
+      <c r="Y32" s="82"/>
+      <c r="Z32" s="82"/>
+      <c r="AA32" s="82"/>
+      <c r="AB32" s="82"/>
+      <c r="AC32" s="82"/>
+      <c r="AD32" s="82"/>
+      <c r="AE32" s="82"/>
+      <c r="AF32" s="82"/>
+      <c r="AG32" s="82"/>
+      <c r="AH32" s="82"/>
+      <c r="AI32" s="82"/>
+      <c r="AJ32" s="82"/>
+      <c r="AK32" s="82"/>
+      <c r="AL32" s="82"/>
+      <c r="AM32" s="82"/>
+      <c r="AN32" s="82"/>
+      <c r="AO32" s="82"/>
+      <c r="AP32" s="82"/>
+      <c r="AQ32" s="82"/>
+      <c r="AR32" s="82"/>
+      <c r="AS32" s="82"/>
+      <c r="AT32" s="82"/>
+      <c r="AU32" s="82"/>
+      <c r="AV32" s="82"/>
+      <c r="AW32" s="82"/>
+      <c r="AX32" s="82"/>
+      <c r="AY32" s="82"/>
+      <c r="AZ32" s="82"/>
+      <c r="BA32" s="82"/>
+      <c r="BB32" s="82"/>
+      <c r="BC32" s="82"/>
+      <c r="BD32" s="82"/>
+      <c r="BE32" s="30"/>
+      <c r="BF32" s="30"/>
+      <c r="BG32" s="30"/>
+      <c r="BH32" s="30"/>
+      <c r="BI32" s="30"/>
+      <c r="BJ32" s="30"/>
+      <c r="BK32" s="30"/>
+      <c r="BL32" s="30"/>
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="44"/>
-      <c r="B33" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="58"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="83"/>
-      <c r="O33" s="83"/>
-      <c r="P33" s="83"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="83"/>
-      <c r="S33" s="83"/>
-      <c r="T33" s="83"/>
-      <c r="U33" s="83"/>
-      <c r="V33" s="83"/>
-      <c r="W33" s="83"/>
-      <c r="X33" s="83"/>
-      <c r="Y33" s="83"/>
-      <c r="Z33" s="83"/>
-      <c r="AA33" s="83"/>
-      <c r="AB33" s="83"/>
-      <c r="AC33" s="83"/>
-      <c r="AD33" s="83"/>
-      <c r="AE33" s="83"/>
-      <c r="AF33" s="83"/>
-      <c r="AG33" s="83"/>
-      <c r="AH33" s="83"/>
-      <c r="AI33" s="83"/>
-      <c r="AJ33" s="83"/>
-      <c r="AK33" s="83"/>
-      <c r="AL33" s="83"/>
-      <c r="AM33" s="83"/>
-      <c r="AN33" s="83"/>
-      <c r="AO33" s="83"/>
-      <c r="AP33" s="83"/>
-      <c r="AQ33" s="83"/>
-      <c r="AR33" s="83"/>
-      <c r="AS33" s="83"/>
-      <c r="AT33" s="83"/>
-      <c r="AU33" s="83"/>
-      <c r="AV33" s="83"/>
-      <c r="AW33" s="83"/>
-      <c r="AX33" s="83"/>
-      <c r="AY33" s="83"/>
-      <c r="AZ33" s="83"/>
-      <c r="BA33" s="83"/>
-      <c r="BB33" s="83"/>
-      <c r="BC33" s="83"/>
-      <c r="BD33" s="83"/>
-      <c r="BE33" s="31"/>
-      <c r="BF33" s="31"/>
-      <c r="BG33" s="31"/>
-      <c r="BH33" s="31"/>
-      <c r="BI33" s="31"/>
-      <c r="BJ33" s="31"/>
-      <c r="BK33" s="31"/>
-      <c r="BL33" s="31"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="82"/>
+      <c r="Q33" s="82"/>
+      <c r="R33" s="82"/>
+      <c r="S33" s="82"/>
+      <c r="T33" s="82"/>
+      <c r="U33" s="82"/>
+      <c r="V33" s="82"/>
+      <c r="W33" s="82"/>
+      <c r="X33" s="82"/>
+      <c r="Y33" s="82"/>
+      <c r="Z33" s="82"/>
+      <c r="AA33" s="82"/>
+      <c r="AB33" s="82"/>
+      <c r="AC33" s="82"/>
+      <c r="AD33" s="82"/>
+      <c r="AE33" s="82"/>
+      <c r="AF33" s="82"/>
+      <c r="AG33" s="82"/>
+      <c r="AH33" s="82"/>
+      <c r="AI33" s="82"/>
+      <c r="AJ33" s="82"/>
+      <c r="AK33" s="82"/>
+      <c r="AL33" s="82"/>
+      <c r="AM33" s="82"/>
+      <c r="AN33" s="82"/>
+      <c r="AO33" s="82"/>
+      <c r="AP33" s="82"/>
+      <c r="AQ33" s="82"/>
+      <c r="AR33" s="82"/>
+      <c r="AS33" s="82"/>
+      <c r="AT33" s="82"/>
+      <c r="AU33" s="82"/>
+      <c r="AV33" s="82"/>
+      <c r="AW33" s="82"/>
+      <c r="AX33" s="82"/>
+      <c r="AY33" s="82"/>
+      <c r="AZ33" s="82"/>
+      <c r="BA33" s="82"/>
+      <c r="BB33" s="82"/>
+      <c r="BC33" s="82"/>
+      <c r="BD33" s="82"/>
+      <c r="BE33" s="30"/>
+      <c r="BF33" s="30"/>
+      <c r="BG33" s="30"/>
+      <c r="BH33" s="30"/>
+      <c r="BI33" s="30"/>
+      <c r="BJ33" s="30"/>
+      <c r="BK33" s="30"/>
+      <c r="BL33" s="30"/>
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="44"/>
-      <c r="B34" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="58"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="31"/>
-      <c r="AD34" s="31"/>
-      <c r="AE34" s="31"/>
-      <c r="AF34" s="31"/>
-      <c r="AG34" s="31"/>
-      <c r="AH34" s="31"/>
-      <c r="AI34" s="31"/>
-      <c r="AJ34" s="31"/>
-      <c r="AK34" s="31"/>
-      <c r="AL34" s="31"/>
-      <c r="AM34" s="31"/>
-      <c r="AN34" s="31"/>
-      <c r="AO34" s="31"/>
-      <c r="AP34" s="31"/>
-      <c r="AQ34" s="31"/>
-      <c r="AR34" s="31"/>
-      <c r="AS34" s="31"/>
-      <c r="AT34" s="31"/>
-      <c r="AU34" s="31"/>
-      <c r="AV34" s="31"/>
-      <c r="AW34" s="31"/>
-      <c r="AX34" s="31"/>
-      <c r="AY34" s="31"/>
-      <c r="AZ34" s="31"/>
-      <c r="BA34" s="31"/>
-      <c r="BB34" s="31"/>
-      <c r="BC34" s="31"/>
-      <c r="BD34" s="31"/>
-      <c r="BE34" s="31"/>
-      <c r="BF34" s="31"/>
-      <c r="BG34" s="31"/>
-      <c r="BH34" s="31"/>
-      <c r="BI34" s="31"/>
-      <c r="BJ34" s="31"/>
-      <c r="BK34" s="31"/>
-      <c r="BL34" s="31"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="30"/>
+      <c r="AB34" s="30"/>
+      <c r="AC34" s="30"/>
+      <c r="AD34" s="30"/>
+      <c r="AE34" s="30"/>
+      <c r="AF34" s="30"/>
+      <c r="AG34" s="30"/>
+      <c r="AH34" s="30"/>
+      <c r="AI34" s="30"/>
+      <c r="AJ34" s="30"/>
+      <c r="AK34" s="30"/>
+      <c r="AL34" s="30"/>
+      <c r="AM34" s="30"/>
+      <c r="AN34" s="30"/>
+      <c r="AO34" s="30"/>
+      <c r="AP34" s="30"/>
+      <c r="AQ34" s="30"/>
+      <c r="AR34" s="30"/>
+      <c r="AS34" s="30"/>
+      <c r="AT34" s="30"/>
+      <c r="AU34" s="30"/>
+      <c r="AV34" s="30"/>
+      <c r="AW34" s="30"/>
+      <c r="AX34" s="30"/>
+      <c r="AY34" s="30"/>
+      <c r="AZ34" s="30"/>
+      <c r="BA34" s="30"/>
+      <c r="BB34" s="30"/>
+      <c r="BC34" s="30"/>
+      <c r="BD34" s="30"/>
+      <c r="BE34" s="30"/>
+      <c r="BF34" s="30"/>
+      <c r="BG34" s="30"/>
+      <c r="BH34" s="30"/>
+      <c r="BI34" s="30"/>
+      <c r="BJ34" s="30"/>
+      <c r="BK34" s="30"/>
+      <c r="BL34" s="30"/>
     </row>
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
+      <c r="A35" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="58"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
       <c r="G35" s="14"/>
       <c r="H35" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="31"/>
-      <c r="AH35" s="31"/>
-      <c r="AI35" s="31"/>
-      <c r="AJ35" s="31"/>
-      <c r="AK35" s="31"/>
-      <c r="AL35" s="31"/>
-      <c r="AM35" s="31"/>
-      <c r="AN35" s="31"/>
-      <c r="AO35" s="31"/>
-      <c r="AP35" s="31"/>
-      <c r="AQ35" s="31"/>
-      <c r="AR35" s="31"/>
-      <c r="AS35" s="31"/>
-      <c r="AT35" s="31"/>
-      <c r="AU35" s="31"/>
-      <c r="AV35" s="31"/>
-      <c r="AW35" s="31"/>
-      <c r="AX35" s="31"/>
-      <c r="AY35" s="31"/>
-      <c r="AZ35" s="31"/>
-      <c r="BA35" s="31"/>
-      <c r="BB35" s="31"/>
-      <c r="BC35" s="31"/>
-      <c r="BD35" s="31"/>
-      <c r="BE35" s="31"/>
-      <c r="BF35" s="31"/>
-      <c r="BG35" s="31"/>
-      <c r="BH35" s="31"/>
-      <c r="BI35" s="31"/>
-      <c r="BJ35" s="31"/>
-      <c r="BK35" s="31"/>
-      <c r="BL35" s="31"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
+      <c r="AB35" s="30"/>
+      <c r="AC35" s="30"/>
+      <c r="AD35" s="30"/>
+      <c r="AE35" s="30"/>
+      <c r="AF35" s="30"/>
+      <c r="AG35" s="30"/>
+      <c r="AH35" s="30"/>
+      <c r="AI35" s="30"/>
+      <c r="AJ35" s="30"/>
+      <c r="AK35" s="30"/>
+      <c r="AL35" s="30"/>
+      <c r="AM35" s="30"/>
+      <c r="AN35" s="30"/>
+      <c r="AO35" s="30"/>
+      <c r="AP35" s="30"/>
+      <c r="AQ35" s="30"/>
+      <c r="AR35" s="30"/>
+      <c r="AS35" s="30"/>
+      <c r="AT35" s="30"/>
+      <c r="AU35" s="30"/>
+      <c r="AV35" s="30"/>
+      <c r="AW35" s="30"/>
+      <c r="AX35" s="30"/>
+      <c r="AY35" s="30"/>
+      <c r="AZ35" s="30"/>
+      <c r="BA35" s="30"/>
+      <c r="BB35" s="30"/>
+      <c r="BC35" s="30"/>
+      <c r="BD35" s="30"/>
+      <c r="BE35" s="30"/>
+      <c r="BF35" s="30"/>
+      <c r="BG35" s="30"/>
+      <c r="BH35" s="30"/>
+      <c r="BI35" s="30"/>
+      <c r="BJ35" s="30"/>
+      <c r="BK35" s="30"/>
+      <c r="BL35" s="30"/>
     </row>
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
+      <c r="A36" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="58"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
       <c r="G36" s="14"/>
       <c r="H36" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="31"/>
-      <c r="AG36" s="31"/>
-      <c r="AH36" s="31"/>
-      <c r="AI36" s="31"/>
-      <c r="AJ36" s="31"/>
-      <c r="AK36" s="31"/>
-      <c r="AL36" s="31"/>
-      <c r="AM36" s="31"/>
-      <c r="AN36" s="31"/>
-      <c r="AO36" s="31"/>
-      <c r="AP36" s="31"/>
-      <c r="AQ36" s="31"/>
-      <c r="AR36" s="31"/>
-      <c r="AS36" s="31"/>
-      <c r="AT36" s="31"/>
-      <c r="AU36" s="31"/>
-      <c r="AV36" s="31"/>
-      <c r="AW36" s="31"/>
-      <c r="AX36" s="31"/>
-      <c r="AY36" s="31"/>
-      <c r="AZ36" s="31"/>
-      <c r="BA36" s="31"/>
-      <c r="BB36" s="31"/>
-      <c r="BC36" s="31"/>
-      <c r="BD36" s="31"/>
-      <c r="BE36" s="31"/>
-      <c r="BF36" s="31"/>
-      <c r="BG36" s="31"/>
-      <c r="BH36" s="31"/>
-      <c r="BI36" s="31"/>
-      <c r="BJ36" s="31"/>
-      <c r="BK36" s="31"/>
-      <c r="BL36" s="31"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="30"/>
+      <c r="AF36" s="30"/>
+      <c r="AG36" s="30"/>
+      <c r="AH36" s="30"/>
+      <c r="AI36" s="30"/>
+      <c r="AJ36" s="30"/>
+      <c r="AK36" s="30"/>
+      <c r="AL36" s="30"/>
+      <c r="AM36" s="30"/>
+      <c r="AN36" s="30"/>
+      <c r="AO36" s="30"/>
+      <c r="AP36" s="30"/>
+      <c r="AQ36" s="30"/>
+      <c r="AR36" s="30"/>
+      <c r="AS36" s="30"/>
+      <c r="AT36" s="30"/>
+      <c r="AU36" s="30"/>
+      <c r="AV36" s="30"/>
+      <c r="AW36" s="30"/>
+      <c r="AX36" s="30"/>
+      <c r="AY36" s="30"/>
+      <c r="AZ36" s="30"/>
+      <c r="BA36" s="30"/>
+      <c r="BB36" s="30"/>
+      <c r="BC36" s="30"/>
+      <c r="BD36" s="30"/>
+      <c r="BE36" s="30"/>
+      <c r="BF36" s="30"/>
+      <c r="BG36" s="30"/>
+      <c r="BH36" s="30"/>
+      <c r="BI36" s="30"/>
+      <c r="BJ36" s="30"/>
+      <c r="BK36" s="30"/>
+      <c r="BL36" s="30"/>
     </row>
     <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="64"/>
-      <c r="C37" s="60"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="59"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
       <c r="G37" s="14"/>
       <c r="H37" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="31"/>
-      <c r="AB37" s="31"/>
-      <c r="AC37" s="31"/>
-      <c r="AD37" s="31"/>
-      <c r="AE37" s="31"/>
-      <c r="AF37" s="31"/>
-      <c r="AG37" s="31"/>
-      <c r="AH37" s="31"/>
-      <c r="AI37" s="31"/>
-      <c r="AJ37" s="31"/>
-      <c r="AK37" s="31"/>
-      <c r="AL37" s="31"/>
-      <c r="AM37" s="31"/>
-      <c r="AN37" s="31"/>
-      <c r="AO37" s="31"/>
-      <c r="AP37" s="31"/>
-      <c r="AQ37" s="31"/>
-      <c r="AR37" s="31"/>
-      <c r="AS37" s="31"/>
-      <c r="AT37" s="31"/>
-      <c r="AU37" s="31"/>
-      <c r="AV37" s="31"/>
-      <c r="AW37" s="31"/>
-      <c r="AX37" s="31"/>
-      <c r="AY37" s="31"/>
-      <c r="AZ37" s="31"/>
-      <c r="BA37" s="31"/>
-      <c r="BB37" s="31"/>
-      <c r="BC37" s="31"/>
-      <c r="BD37" s="31"/>
-      <c r="BE37" s="31"/>
-      <c r="BF37" s="31"/>
-      <c r="BG37" s="31"/>
-      <c r="BH37" s="31"/>
-      <c r="BI37" s="31"/>
-      <c r="BJ37" s="31"/>
-      <c r="BK37" s="31"/>
-      <c r="BL37" s="31"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="30"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="30"/>
+      <c r="AF37" s="30"/>
+      <c r="AG37" s="30"/>
+      <c r="AH37" s="30"/>
+      <c r="AI37" s="30"/>
+      <c r="AJ37" s="30"/>
+      <c r="AK37" s="30"/>
+      <c r="AL37" s="30"/>
+      <c r="AM37" s="30"/>
+      <c r="AN37" s="30"/>
+      <c r="AO37" s="30"/>
+      <c r="AP37" s="30"/>
+      <c r="AQ37" s="30"/>
+      <c r="AR37" s="30"/>
+      <c r="AS37" s="30"/>
+      <c r="AT37" s="30"/>
+      <c r="AU37" s="30"/>
+      <c r="AV37" s="30"/>
+      <c r="AW37" s="30"/>
+      <c r="AX37" s="30"/>
+      <c r="AY37" s="30"/>
+      <c r="AZ37" s="30"/>
+      <c r="BA37" s="30"/>
+      <c r="BB37" s="30"/>
+      <c r="BC37" s="30"/>
+      <c r="BD37" s="30"/>
+      <c r="BE37" s="30"/>
+      <c r="BF37" s="30"/>
+      <c r="BG37" s="30"/>
+      <c r="BH37" s="30"/>
+      <c r="BI37" s="30"/>
+      <c r="BJ37" s="30"/>
+      <c r="BK37" s="30"/>
+      <c r="BL37" s="30"/>
     </row>
     <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30" t="str">
+      <c r="B38" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="32"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="32"/>
-      <c r="AB38" s="32"/>
-      <c r="AC38" s="32"/>
-      <c r="AD38" s="32"/>
-      <c r="AE38" s="32"/>
-      <c r="AF38" s="32"/>
-      <c r="AG38" s="32"/>
-      <c r="AH38" s="32"/>
-      <c r="AI38" s="32"/>
-      <c r="AJ38" s="32"/>
-      <c r="AK38" s="32"/>
-      <c r="AL38" s="32"/>
-      <c r="AM38" s="32"/>
-      <c r="AN38" s="32"/>
-      <c r="AO38" s="32"/>
-      <c r="AP38" s="32"/>
-      <c r="AQ38" s="32"/>
-      <c r="AR38" s="32"/>
-      <c r="AS38" s="32"/>
-      <c r="AT38" s="32"/>
-      <c r="AU38" s="32"/>
-      <c r="AV38" s="32"/>
-      <c r="AW38" s="32"/>
-      <c r="AX38" s="32"/>
-      <c r="AY38" s="32"/>
-      <c r="AZ38" s="32"/>
-      <c r="BA38" s="32"/>
-      <c r="BB38" s="32"/>
-      <c r="BC38" s="32"/>
-      <c r="BD38" s="32"/>
-      <c r="BE38" s="32"/>
-      <c r="BF38" s="32"/>
-      <c r="BG38" s="32"/>
-      <c r="BH38" s="32"/>
-      <c r="BI38" s="32"/>
-      <c r="BJ38" s="32"/>
-      <c r="BK38" s="32"/>
-      <c r="BL38" s="32"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="31"/>
+      <c r="AE38" s="31"/>
+      <c r="AF38" s="31"/>
+      <c r="AG38" s="31"/>
+      <c r="AH38" s="31"/>
+      <c r="AI38" s="31"/>
+      <c r="AJ38" s="31"/>
+      <c r="AK38" s="31"/>
+      <c r="AL38" s="31"/>
+      <c r="AM38" s="31"/>
+      <c r="AN38" s="31"/>
+      <c r="AO38" s="31"/>
+      <c r="AP38" s="31"/>
+      <c r="AQ38" s="31"/>
+      <c r="AR38" s="31"/>
+      <c r="AS38" s="31"/>
+      <c r="AT38" s="31"/>
+      <c r="AU38" s="31"/>
+      <c r="AV38" s="31"/>
+      <c r="AW38" s="31"/>
+      <c r="AX38" s="31"/>
+      <c r="AY38" s="31"/>
+      <c r="AZ38" s="31"/>
+      <c r="BA38" s="31"/>
+      <c r="BB38" s="31"/>
+      <c r="BC38" s="31"/>
+      <c r="BD38" s="31"/>
+      <c r="BE38" s="31"/>
+      <c r="BF38" s="31"/>
+      <c r="BG38" s="31"/>
+      <c r="BH38" s="31"/>
+      <c r="BI38" s="31"/>
+      <c r="BJ38" s="31"/>
+      <c r="BK38" s="31"/>
+      <c r="BL38" s="31"/>
     </row>
     <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C40" s="11"/>
-      <c r="F40" s="46"/>
+      <c r="F40" s="45"/>
     </row>
     <row r="41" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C41" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4892,9 +4985,14 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D38">
-    <cfRule type="dataBar" priority="18">
+  <conditionalFormatting sqref="D21:D38 D7:D19">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4907,16 +5005,43 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL38">
-    <cfRule type="expression" dxfId="2" priority="37">
+  <conditionalFormatting sqref="I21:BL38 I5:BL19">
+    <cfRule type="expression" dxfId="5" priority="41">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL38">
-    <cfRule type="expression" dxfId="1" priority="31">
+  <conditionalFormatting sqref="I21:BL38 I7:BL19">
+    <cfRule type="expression" dxfId="4" priority="35">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="36" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{832439AF-FCB0-4F49-B4AE-A28F65E2B862}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:BL20">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:BL20">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4947,7 +5072,22 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D38</xm:sqref>
+          <xm:sqref>D21:D38 D7:D19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{832439AF-FCB0-4F49-B4AE-A28F65E2B862}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D20</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4966,86 +5106,86 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="109.81640625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="109.81640625" style="33" customWidth="1"/>
     <col min="2" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="36" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:2" s="35" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="34"/>
+    </row>
+    <row r="3" spans="1:2" s="39" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="35"/>
-    </row>
-    <row r="3" spans="1:2" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
+      <c r="B3" s="40"/>
+    </row>
+    <row r="4" spans="1:2" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+      <c r="A4" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="41"/>
-    </row>
-    <row r="4" spans="1:2" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.6">
-      <c r="A4" s="38" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+    <row r="7" spans="1:2" s="33" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="42" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="34" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+    <row r="8" spans="1:2" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+      <c r="A8" s="37" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.6">
-      <c r="A8" s="38" t="s">
+    <row r="9" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+    <row r="10" spans="1:2" s="33" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="34" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="42" t="s">
+    <row r="11" spans="1:2" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+      <c r="A11" s="37" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.6">
-      <c r="A11" s="38" t="s">
+    <row r="12" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
+    <row r="13" spans="1:2" s="33" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="41" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="34" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="42" t="s">
+    <row r="14" spans="1:2" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+      <c r="A14" s="37" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.6">
-      <c r="A14" s="38" t="s">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+    <row r="16" spans="1:2" ht="58" x14ac:dyDescent="0.3">
+      <c r="A16" s="38" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="58" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5066,9 +5206,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5186,19 +5329,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C1D3743-B190-4191-A359-9E69635A6E3A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D35F8FE-199A-4A9A-8234-A9E3914B08C9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5220,9 +5359,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D35F8FE-199A-4A9A-8234-A9E3914B08C9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C1D3743-B190-4191-A359-9E69635A6E3A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>